--- a/ops/import-2022-01-24/2019Projects.xlsx
+++ b/ops/import-2022-01-24/2019Projects.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yiqingyang/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yiqingyang/Downloads/新SPM/Projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D76C136-4F0D-1E4A-8D3E-6EC051870419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963BFCA1-BA14-EF4F-88F1-B22F558794E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="1120" windowWidth="50740" windowHeight="25520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16820" yWindow="1340" windowWidth="50740" windowHeight="25520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4338" uniqueCount="1684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5668" uniqueCount="2108">
   <si>
     <t>2019Projects</t>
   </si>
@@ -5011,9 +5011,6 @@
     <t>2019年欣欣图书项目申请表-10021</t>
   </si>
   <si>
-    <t>2020-05-04</t>
-  </si>
-  <si>
     <t>2020-12-31</t>
   </si>
   <si>
@@ -5029,9 +5026,6 @@
     <t>350 - 四川省美姑县哈洛乡莘幸欣欣小学</t>
   </si>
   <si>
-    <t>2020-05-06</t>
-  </si>
-  <si>
     <t>20万元人民币专项用于学校引入水源，解决师生用水难问题。</t>
   </si>
   <si>
@@ -5047,9 +5041,6 @@
     <t>欣美乡村学校项目</t>
   </si>
   <si>
-    <t>2020-05-07</t>
-  </si>
-  <si>
     <t>2020-05-08</t>
   </si>
   <si>
@@ -5062,23 +5053,1304 @@
     <t>2019欣美乡村学校项目</t>
   </si>
   <si>
+    <t>项目包括维修工程，2台一体机，5个图书角和文体设施方面的支持</t>
+  </si>
+  <si>
+    <t>2019欣美乡村学校-3 2019欣美乡村学校项目</t>
+  </si>
+  <si>
+    <t>项目包括教师宿舍维修工程，图书角等方面的支持</t>
+  </si>
+  <si>
+    <t>2019-05-04</t>
+  </si>
+  <si>
+    <t>2019-05-06</t>
+  </si>
+  <si>
+    <t>2019-10-21</t>
+  </si>
+  <si>
+    <t>2020设施改善项目-15 2020 设施改善项目申请表-10001</t>
+  </si>
+  <si>
+    <t>2020 设施改善项目申请表-10001</t>
+  </si>
+  <si>
+    <t>2020-10-24</t>
+  </si>
+  <si>
+    <t>1台饮水设备</t>
+  </si>
+  <si>
+    <t>2020设施改善项目-7 2020 设施改善项目申请表-10002</t>
+  </si>
+  <si>
+    <t>2020 设施改善项目申请表-10002</t>
+  </si>
+  <si>
+    <t>2020-10-16</t>
+  </si>
+  <si>
+    <t>2台饮水设备</t>
+  </si>
+  <si>
+    <t>2020设施改善项目-19 2020 设施改善项目申请表-10003</t>
+  </si>
+  <si>
+    <t>2020 设施改善项目申请表-10003</t>
+  </si>
+  <si>
+    <t>2020-10-27</t>
+  </si>
+  <si>
+    <t>1台饮水设备¥4320；硬化操场活动场地 ¥45000</t>
+  </si>
+  <si>
+    <t>2020设施改善项目-24 2020 设施改善项目申请表-10019</t>
+  </si>
+  <si>
+    <t>2020 设施改善项目申请表-10019</t>
+  </si>
+  <si>
+    <t>2020-10-28</t>
+  </si>
+  <si>
+    <t>1台饮水设备 ¥4320；饮水系统工程 ¥55800</t>
+  </si>
+  <si>
+    <t>2020设施改善项目-31 2020 设施改善项目申请表-10020</t>
+  </si>
+  <si>
+    <t>2020 设施改善项目申请表-10020</t>
+  </si>
+  <si>
+    <t>2020-11-02</t>
+  </si>
+  <si>
+    <t>学生宿舍被子</t>
+  </si>
+  <si>
+    <t>2020设施改善项目-30 2020 设施改善项目申请表-10027</t>
+  </si>
+  <si>
+    <t>2020 设施改善项目申请表-10027</t>
+  </si>
+  <si>
+    <t>2020-10-31</t>
+  </si>
+  <si>
+    <t>捐赠一台饮水设备</t>
+  </si>
+  <si>
+    <t>2020设施改善项目-1 2020 设施改善项目申请表-10036</t>
+  </si>
+  <si>
+    <t>2020 设施改善项目申请表-10036</t>
+  </si>
+  <si>
+    <t>2020-10-08</t>
+  </si>
+  <si>
+    <t>2020设施改善项目-18 2020 设施改善项目申请表-10039</t>
+  </si>
+  <si>
+    <t>2020 设施改善项目申请表-10039</t>
+  </si>
+  <si>
+    <t>225 - 山东省阳信县水落坡乡长庄艺文欣欣小学</t>
+  </si>
+  <si>
+    <t>2020-10-25</t>
+  </si>
+  <si>
+    <t>一台饮水设备</t>
+  </si>
+  <si>
+    <t>山东省滨州市阳信县水落坡镇长庄小学</t>
+  </si>
+  <si>
+    <t>阳信县教育和体育局</t>
+  </si>
+  <si>
+    <t>2020设施改善项目-32 2020 设施改善项目申请表-10051</t>
+  </si>
+  <si>
+    <t>2020 设施改善项目申请表-10051</t>
+  </si>
+  <si>
+    <t>2020-11-05</t>
+  </si>
+  <si>
+    <t>通过向荣捐赠宿舍空调9台</t>
+  </si>
+  <si>
+    <t>2020设施改善项目-13 2020 设施改善项目申请表-10054</t>
+  </si>
+  <si>
+    <t>2020 设施改善项目申请表-10054</t>
+  </si>
+  <si>
+    <t>205 - 陕西省商洛市柞水县杏坪镇欣欣中心校</t>
+  </si>
+  <si>
+    <t>大型饮水机一台</t>
+  </si>
+  <si>
+    <t>柞水县杏坪镇中心校</t>
+  </si>
+  <si>
+    <t>2020设施改善项目-23 2020 设施改善项目申请表-10059</t>
+  </si>
+  <si>
+    <t>2020 设施改善项目申请表-10059</t>
+  </si>
+  <si>
+    <t>2020设施改善项目-28 2020 设施改善项目申请表-10083</t>
+  </si>
+  <si>
+    <t>2020 设施改善项目申请表-10083</t>
+  </si>
+  <si>
+    <t>2020-10-30</t>
+  </si>
+  <si>
+    <t>1台饮水设备¥4320； 学生寝室厕所及浴室改建 ¥55800</t>
+  </si>
+  <si>
+    <t>2020设施改善项目-2 2020 设施改善项目申请表-10093</t>
+  </si>
+  <si>
+    <t>2020 设施改善项目申请表-10093</t>
+  </si>
+  <si>
+    <t>2020-10-13</t>
+  </si>
+  <si>
+    <t>2020设施改善项目-14 2020 设施改善项目申请表-10103</t>
+  </si>
+  <si>
+    <t>2020 设施改善项目申请表-10103</t>
+  </si>
+  <si>
+    <t>2020设施改善项目-26 2020 设施改善项目申请表-10154</t>
+  </si>
+  <si>
+    <t>2020 设施改善项目申请表-10154</t>
+  </si>
+  <si>
+    <t>58 - 宁夏中卫市海原县关桥乡中心小学</t>
+  </si>
+  <si>
+    <t>2020-10-29</t>
+  </si>
+  <si>
+    <t>2台饮水设备¥8640；1台打印机 ¥10000</t>
+  </si>
+  <si>
+    <t>宁夏海原县关桥中心小学</t>
+  </si>
+  <si>
+    <t>2020设施改善项目-20 2020 设施改善项目申请表-10157</t>
+  </si>
+  <si>
+    <t>2020 设施改善项目申请表-10157</t>
+  </si>
+  <si>
+    <t>1台饮水设备¥4320；室外型滑梯组合设备 ¥2500</t>
+  </si>
+  <si>
+    <t>2020设施改善项目-21 2020 设施改善项目申请表-10160</t>
+  </si>
+  <si>
+    <t>2020 设施改善项目申请表-10160</t>
+  </si>
+  <si>
+    <t>64 - 青海省西宁市湟中县田家寨什张家广恩欣欣小学</t>
+  </si>
+  <si>
+    <t>青海省西宁市湟中县田家寨什张家学校</t>
+  </si>
+  <si>
+    <t>湟中县教育局</t>
+  </si>
+  <si>
+    <t>2020设施改善项目-9 2020 设施改善项目申请表-10193</t>
+  </si>
+  <si>
+    <t>2020 设施改善项目申请表-10193</t>
+  </si>
+  <si>
+    <t>29 - 辽宁省丹东市振安区宋氏欣欣小学</t>
+  </si>
+  <si>
+    <t>2020-10-17</t>
+  </si>
+  <si>
+    <t>饮水机两台</t>
+  </si>
+  <si>
+    <t>丹东市振安区同兴镇中心小学</t>
+  </si>
+  <si>
+    <t>辽宁省丹东市振安区教育局</t>
+  </si>
+  <si>
+    <t>2020设施改善项目-10 2020 设施改善项目申请表-10199</t>
+  </si>
+  <si>
+    <t>2020 设施改善项目申请表-10199</t>
+  </si>
+  <si>
     <t>2020-10-21</t>
   </si>
   <si>
-    <t>项目包括维修工程，2台一体机，5个图书角和文体设施方面的支持</t>
-  </si>
-  <si>
-    <t>2019欣美乡村学校-3 2019欣美乡村学校项目</t>
-  </si>
-  <si>
-    <t>项目包括教师宿舍维修工程，图书角等方面的支持</t>
+    <t>1台饮水设备¥4320；宿舍配套设施 ¥36630</t>
+  </si>
+  <si>
+    <t>2020设施改善项目-29 2020 设施改善项目申请表-10209</t>
+  </si>
+  <si>
+    <t>2020 设施改善项目申请表-10209</t>
+  </si>
+  <si>
+    <t>2台饮水机</t>
+  </si>
+  <si>
+    <t>2020设施改善项目-12 2020 设施改善项目申请表-10213</t>
+  </si>
+  <si>
+    <t>2020 设施改善项目申请表-10213</t>
+  </si>
+  <si>
+    <t>2020-10-22</t>
+  </si>
+  <si>
+    <t>2020设施改善项目-8 2020 设施改善项目申请表-10219</t>
+  </si>
+  <si>
+    <t>2020 设施改善项目申请表-10219</t>
+  </si>
+  <si>
+    <t>11 - 黑龙江省绥化市太平川镇欣欣小学</t>
+  </si>
+  <si>
+    <t>绥化市北林区太平川镇中心小学校</t>
+  </si>
+  <si>
+    <t>绥化市北林区教育局，0455-8225812</t>
+  </si>
+  <si>
+    <t>2020设施改善项目-17 2020 设施改善项目申请表-10237</t>
+  </si>
+  <si>
+    <t>2020 设施改善项目申请表-10237</t>
+  </si>
+  <si>
+    <t>263 - 山西省五台县陈家庒乡环椿坪慧海欣欣小学</t>
+  </si>
+  <si>
+    <t>饮水机批准一台 已安装</t>
+  </si>
+  <si>
+    <t>五台县陈家庄乡环椿坪小学校</t>
+  </si>
+  <si>
+    <t>五台县教育科技局</t>
+  </si>
+  <si>
+    <t>2020设施改善项目-33 2020 设施改善项目申请表-10266</t>
+  </si>
+  <si>
+    <t>2020 设施改善项目申请表-10266</t>
+  </si>
+  <si>
+    <t>2020-06-15</t>
+  </si>
+  <si>
+    <t>1台饮水设备 ¥4320；食宿楼配套设施 ¥55200</t>
+  </si>
+  <si>
+    <t>2020设施改善项目-3 2020 设施改善项目申请表-10282</t>
+  </si>
+  <si>
+    <t>2020 设施改善项目申请表-10282</t>
+  </si>
+  <si>
+    <t>2020-10-15</t>
+  </si>
+  <si>
+    <t>2020设施改善项目-4 2020 设施改善项目申请表-10287</t>
+  </si>
+  <si>
+    <t>2020 设施改善项目申请表-10287</t>
+  </si>
+  <si>
+    <t>2020设施改善项目-22 2020 设施改善项目申请表-10294</t>
+  </si>
+  <si>
+    <t>2020 设施改善项目申请表-10294</t>
+  </si>
+  <si>
+    <t>2020设施改善项目-25 2020 设施改善项目申请表-10307</t>
+  </si>
+  <si>
+    <t>2020 设施改善项目申请表-10307</t>
+  </si>
+  <si>
+    <t>饮水机一台</t>
+  </si>
+  <si>
+    <t>2020设施改善项目-16 2020 设施改善项目申请表-10321</t>
+  </si>
+  <si>
+    <t>2020 设施改善项目申请表-10321</t>
+  </si>
+  <si>
+    <t>宿舍和会议室维修</t>
+  </si>
+  <si>
+    <t>2020设施改善项目-11 2020 设施改善项目申请表-10327</t>
+  </si>
+  <si>
+    <t>2020 设施改善项目申请表-10327</t>
+  </si>
+  <si>
+    <t>2020设施改善项目-27 2020 设施改善项目申请表-10337</t>
+  </si>
+  <si>
+    <t>2020 设施改善项目申请表-10337</t>
+  </si>
+  <si>
+    <t>329 - 宁夏回族自治区吴中市同心县预旺镇土峰自强欣欣小学</t>
+  </si>
+  <si>
+    <t>饮水设备一台</t>
+  </si>
+  <si>
+    <t>同心县预旺镇土峰完全学校</t>
+  </si>
+  <si>
+    <t>宁夏吴中市同心县教育局</t>
+  </si>
+  <si>
+    <t>2020设施改善项目-6 2020 设施改善项目申请表-10339</t>
+  </si>
+  <si>
+    <t>2020 设施改善项目申请表-10339</t>
+  </si>
+  <si>
+    <t>2020设施改善项目-5 2020 设施改善项目申请表-10343</t>
+  </si>
+  <si>
+    <t>2020 设施改善项目申请表-10343</t>
+  </si>
+  <si>
+    <t>2020小心愿项目-1 2020小心愿项目</t>
+  </si>
+  <si>
+    <t>2020小心愿项目</t>
+  </si>
+  <si>
+    <t>2020-08-16</t>
+  </si>
+  <si>
+    <t>2021-04-30</t>
+  </si>
+  <si>
+    <t>2020小心愿项目-2 2020小心愿项目</t>
+  </si>
+  <si>
+    <t>2020小心愿项目-3 2020小心愿项目</t>
+  </si>
+  <si>
+    <t>“ 小心愿 ” 礼物</t>
+  </si>
+  <si>
+    <t>2020小心愿项目-4 2020小心愿项目</t>
+  </si>
+  <si>
+    <t>219 - 河南省驻马店遂平县槐树乡金台欣欣小学</t>
+  </si>
+  <si>
+    <t>河南省驻马店市遂平县槐树乡大营小学</t>
+  </si>
+  <si>
+    <t>遂平县教育局</t>
+  </si>
+  <si>
+    <t>2020教师微机项目-8 2020年教师微机项目申请表-10003</t>
+  </si>
+  <si>
+    <t>2020年教师微机项目申请表-10003</t>
+  </si>
+  <si>
+    <t>为广西壮族自治区容县松山镇欣欣小学教师提供电脑4台</t>
+  </si>
+  <si>
+    <t>2020教师微机项目-1 2020年教师微机项目申请表-10032</t>
+  </si>
+  <si>
+    <t>2020年教师微机项目申请表-10032</t>
+  </si>
+  <si>
+    <t>2020-10-12</t>
+  </si>
+  <si>
+    <t>四川省资阳市安岳县兴隆镇左家坪林氏欣欣学校	 配备微机1台</t>
+  </si>
+  <si>
+    <t>2020教师微机项目-15 2020年教师微机项目申请表-10048</t>
+  </si>
+  <si>
+    <t>2020年教师微机项目申请表-10048</t>
+  </si>
+  <si>
+    <t>2020-11-06</t>
+  </si>
+  <si>
+    <t>为湖南岳阳市平江县长寿镇新民欣欣小学提供电脑1台</t>
+  </si>
+  <si>
+    <t>2020教师微机项目-9 2020年教师微机项目申请表-10057</t>
+  </si>
+  <si>
+    <t>2020年教师微机项目申请表-10057</t>
+  </si>
+  <si>
+    <t>2台教师电脑</t>
+  </si>
+  <si>
+    <t>2020教师微机项目-4 2020年教师微机项目申请表-10080</t>
+  </si>
+  <si>
+    <t>2020年教师微机项目申请表-10080</t>
+  </si>
+  <si>
+    <t>为湖南省常德市桃源县青林回族维吾尔族乡智诚欣欣学校教师提供电脑2台</t>
+  </si>
+  <si>
+    <t>2020教师微机项目-11 2020年教师微机项目申请表-10082</t>
+  </si>
+  <si>
+    <t>2020年教师微机项目申请表-10082</t>
+  </si>
+  <si>
+    <t>111 - 四川遂宁市射洪县官升镇林氏欣欣小学</t>
+  </si>
+  <si>
+    <t>为四川遂宁市射洪县官升镇林氏欣欣小学教师提供电脑2台</t>
+  </si>
+  <si>
+    <t>射洪市官升学校</t>
+  </si>
+  <si>
+    <t>射洪市教育和体育局</t>
+  </si>
+  <si>
+    <t>2020教师微机项目-12 2020年教师微机项目申请表-10157</t>
+  </si>
+  <si>
+    <t>2020年教师微机项目申请表-10157</t>
+  </si>
+  <si>
+    <t>为四川省筠连县罗昔安欣欣小学教师提供电脑2台</t>
+  </si>
+  <si>
+    <t>2020教师微机项目-6 2020年教师微机项目申请表-10193</t>
+  </si>
+  <si>
+    <t>2020年教师微机项目申请表-10193</t>
+  </si>
+  <si>
+    <t>2020-10-20</t>
+  </si>
+  <si>
+    <t>为辽宁省丹东市振安区宋氏欣欣小学的教师提供电脑两台</t>
+  </si>
+  <si>
+    <t>2020教师微机项目-14 2020年教师微机项目申请表-10209</t>
+  </si>
+  <si>
+    <t>2020年教师微机项目申请表-10209</t>
+  </si>
+  <si>
+    <t>2台电脑</t>
+  </si>
+  <si>
+    <t>2020教师微机项目-7 2020年教师微机项目申请表-10213</t>
+  </si>
+  <si>
+    <t>2020年教师微机项目申请表-10213</t>
+  </si>
+  <si>
+    <t>为内蒙古乌拉特前旗欣欣希望小学(蒙古族)提供2台电脑</t>
+  </si>
+  <si>
+    <t>2020教师微机项目-3 2020年教师微机项目申请表-10219</t>
+  </si>
+  <si>
+    <t>2020年教师微机项目申请表-10219</t>
+  </si>
+  <si>
+    <t>为黑龙江省绥化市太平川镇欣欣小学提供2台电脑</t>
+  </si>
+  <si>
+    <t>2020教师微机项目-13 2020年教师微机项目申请表-10254</t>
+  </si>
+  <si>
+    <t>2020年教师微机项目申请表-10254</t>
+  </si>
+  <si>
+    <t>为湖南永州市江华瑶族自治州白芒营镇中心李绍姒欣欣小学教师提供电脑2台</t>
+  </si>
+  <si>
+    <t>2020教师微机项目-10 2020年教师微机项目申请表-10285</t>
+  </si>
+  <si>
+    <t>2020年教师微机项目申请表-10285</t>
+  </si>
+  <si>
+    <t>为贵州省六盘水市六枝特区折溪乡中寨贝克欣欣小学提供电脑2台</t>
+  </si>
+  <si>
+    <t>2020教师微机项目-5 2020年教师微机项目申请表-10286</t>
+  </si>
+  <si>
+    <t>2020年教师微机项目申请表-10286</t>
+  </si>
+  <si>
+    <t>为四川叙州区双龙镇金山村林氏欣欣小学教师提供电脑2台</t>
+  </si>
+  <si>
+    <t>2020教师微机项目-2 2020年教师微机项目申请表-10339</t>
+  </si>
+  <si>
+    <t>2020年教师微机项目申请表-10339</t>
+  </si>
+  <si>
+    <t>为安徽省肥西县铭传乡南分路学区李国彝欣欣中心小学教师提供电脑2台</t>
+  </si>
+  <si>
+    <t>图书项目2020-1 2020年欣欣图书项目申请表-10344</t>
+  </si>
+  <si>
+    <t>2020年欣欣图书项目申请表-10344</t>
+  </si>
+  <si>
+    <t>344 - 江西省宜春市社埠文泉欣欣完小</t>
+  </si>
+  <si>
+    <t>2020-05-25</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>捐赠165本图书</t>
+  </si>
+  <si>
+    <t>宜春市明月山温泉风景名胜区温汤镇社埠村小学</t>
+  </si>
+  <si>
+    <t>2020摄像头麦克风项目-2 2020年欣欣电子设备项目申请表  - 摄像头/麦克风项目-10049</t>
+  </si>
+  <si>
+    <t>2020年欣欣电子设备项目申请表  - 摄像头/麦克风项目-10049</t>
+  </si>
+  <si>
+    <t>2套摄像头</t>
+  </si>
+  <si>
+    <t>2020摄像头麦克风项目-4 2020年欣欣电子设备项目申请表  - 摄像头/麦克风项目-10209</t>
+  </si>
+  <si>
+    <t>2020年欣欣电子设备项目申请表  - 摄像头/麦克风项目-10209</t>
+  </si>
+  <si>
+    <t>2020-11-18</t>
+  </si>
+  <si>
+    <t>18套摄像头</t>
+  </si>
+  <si>
+    <t>2020摄像头麦克风项目-5 2020年欣欣电子设备项目申请表  - 摄像头/麦克风项目-10262</t>
+  </si>
+  <si>
+    <t>2020年欣欣电子设备项目申请表  - 摄像头/麦克风项目-10262</t>
+  </si>
+  <si>
+    <t>1套摄像头</t>
+  </si>
+  <si>
+    <t>2020摄像头麦克风项目-3 2020年欣欣电子设备项目申请表  - 摄像头/麦克风项目-10283</t>
+  </si>
+  <si>
+    <t>2020年欣欣电子设备项目申请表  - 摄像头/麦克风项目-10283</t>
+  </si>
+  <si>
+    <t>2020-11-11</t>
+  </si>
+  <si>
+    <t>7套摄像头</t>
+  </si>
+  <si>
+    <t>2020摄像头麦克风项目-1 2020年欣欣电子设备项目申请表  - 摄像头/麦克风项目-10286</t>
+  </si>
+  <si>
+    <t>2020年欣欣电子设备项目申请表  - 摄像头/麦克风项目-10286</t>
+  </si>
+  <si>
+    <t>3套摄像头</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-4 2020年欣欣美术园活动-10001</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-10001</t>
+  </si>
+  <si>
+    <t>费用含美术材料、教师和学生奖品</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-20 2020年欣欣美术园活动-10035</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-10035</t>
+  </si>
+  <si>
+    <t>174 - 海南省三亚市吉阳区红沙小学广恩欣欣教学楼</t>
+  </si>
+  <si>
+    <t>海南省三亚市吉阳区红沙小学</t>
+  </si>
+  <si>
+    <t>海南省三亚市吉阳区教育科技局</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-21 2020年欣欣美术园活动-10036</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-10036</t>
+  </si>
+  <si>
+    <t>费用含美术材料和教师、学生奖品</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-23 2020年欣欣美术园活动-10057</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-10057</t>
+  </si>
+  <si>
+    <t>费用含美术材料，教师和学生奖品</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-12 2020年欣欣美术园活动-10066</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-10066</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-13 2020年欣欣美术园活动-10069</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-10069</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-14 2020年欣欣美术园活动-10087</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-10087</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-15 2020年欣欣美术园活动-10107</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-10107</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-16 2020年欣欣美术园活动-10117</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-10117</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-17 2020年欣欣美术园活动-10118</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-10118</t>
+  </si>
+  <si>
+    <t>147 - 江苏宝应县城中欣欣小学</t>
+  </si>
+  <si>
+    <t>费用含美术材料</t>
+  </si>
+  <si>
+    <t>江苏省宝应县城中欣欣小学</t>
+  </si>
+  <si>
+    <t>宝应县教育局</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-18 2020年欣欣美术园活动-10127</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-10127</t>
+  </si>
+  <si>
+    <t>费用含美术材料、教师好学生奖品</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-19 2020年欣欣美术园活动-10138</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-10138</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-10 2020年欣欣美术园活动-10147</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-10147</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-11 2020年欣欣美术园活动-10169</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-10169</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-6 2020年欣欣美术园活动-10195</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-10195</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-7 2020年欣欣美术园活动-10199</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-10199</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-8 2020年欣欣美术园活动-10202</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-10202</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-9 2020年欣欣美术园活动-10208</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-10208</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-1 2020年欣欣美术园活动-10209</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-10209</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-2 2020年欣欣美术园活动-10210</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-10210</t>
+  </si>
+  <si>
+    <t>费用含材料</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-3 2020年欣欣美术园活动-10211</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-10211</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-5 2020年欣欣美术园活动-10227</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-10227</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-22 2020年欣欣美术园活动-10229</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-10229</t>
+  </si>
+  <si>
+    <t>美术园：费用含材料，教师学生奖品</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-25 2020年欣欣美术园活动-10246</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-10246</t>
+  </si>
+  <si>
+    <t>材料费用</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-24 2020年欣欣美术园活动-10254</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-10254</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-26 2020年欣欣美术园活动-10269</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-10269</t>
+  </si>
+  <si>
+    <t>费用含美术材料、教师学生奖品</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-28 2020年欣欣美术园活动-10270</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-10270</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-27 2020年欣欣美术园活动-10292</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-10292</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-29 2020年欣欣美术园活动-10306</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-10306</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-30 2020年欣欣美术园活动-10319</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-10319</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-31 2020年欣欣美术园活动-10339</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-10339</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-32 2020年欣欣美术园活动-10341</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-10341</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-33 2020年欣欣美术园活动-10343</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-10343</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-34 2020年欣欣美术园活动-10345</t>
+  </si>
+  <si>
+    <t>2020年欣欣美术园活动-10345</t>
+  </si>
+  <si>
+    <t>2020欣欣读书月-1 2020欣欣读书月</t>
+  </si>
+  <si>
+    <t>2020欣欣读书月</t>
+  </si>
+  <si>
+    <t>2020-08-15</t>
+  </si>
+  <si>
+    <t>2021-05-31</t>
+  </si>
+  <si>
+    <t>2020欣欣读书月-2 2020欣欣读书月</t>
+  </si>
+  <si>
+    <t>2020欣欣读书月-3 2020欣欣读书月</t>
+  </si>
+  <si>
+    <t>2021-05-30</t>
+  </si>
+  <si>
+    <t>2020欣欣读书月-4 2020欣欣读书月</t>
+  </si>
+  <si>
+    <t>读书月奖品</t>
+  </si>
+  <si>
+    <t>2020欣欣读书月-5 2020欣欣读书月</t>
+  </si>
+  <si>
+    <t>2020欣欣读书月-6 2020欣欣读书月</t>
+  </si>
+  <si>
+    <t>2020欣欣读书月-7 2020欣欣读书月</t>
+  </si>
+  <si>
+    <t>2020欣欣读书月-8 2020欣欣读书月</t>
+  </si>
+  <si>
+    <t>2020欣欣读书月-9 2020欣欣读书月</t>
+  </si>
+  <si>
+    <t>2020欣欣读书月-10 2020欣欣读书月</t>
+  </si>
+  <si>
+    <t>2020欣欣读书月-11 2020欣欣读书月</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Wonder Med. &amp; Edu. Foundation</t>
+  </si>
+  <si>
+    <t>2020欣欣读书月-12 2020欣欣读书月</t>
+  </si>
+  <si>
+    <t>2020欣欣读书月-13 2020欣欣读书月</t>
+  </si>
+  <si>
+    <t>2020欣欣读书月-14 2020欣欣读书月</t>
+  </si>
+  <si>
+    <t>2020欣欣读书月-15 2020欣欣读书月</t>
+  </si>
+  <si>
+    <t>2020欣欣读书月-16 2020欣欣读书月</t>
+  </si>
+  <si>
+    <t>2020欣欣读书月-17 2020欣欣读书月</t>
+  </si>
+  <si>
+    <t>2020欣欣读书月-18 2020欣欣读书月</t>
+  </si>
+  <si>
+    <t>2020欣欣读书月-19 2020欣欣读书月</t>
+  </si>
+  <si>
+    <t>2020欣欣读书月-20 2020欣欣读书月</t>
+  </si>
+  <si>
+    <t>2020欣欣读书月-21 2020欣欣读书月</t>
+  </si>
+  <si>
+    <t>2020欣欣读书月-22 2020欣欣读书月</t>
+  </si>
+  <si>
+    <t>2020欣欣读书月-23 2020欣欣读书月</t>
+  </si>
+  <si>
+    <t>2020欣欣读书月-24 2020欣欣读书月</t>
+  </si>
+  <si>
+    <t>2020欣欣读书月-25 2020欣欣读书月</t>
+  </si>
+  <si>
+    <t>2020欣欣读书月-26 2020欣欣读书月</t>
+  </si>
+  <si>
+    <t>2020欣欣读书月-27 2020欣欣读书月</t>
+  </si>
+  <si>
+    <t>2020欣欣读书月-28 2020欣欣读书月</t>
+  </si>
+  <si>
+    <t>2020欣欣读书月-29 2020欣欣读书月</t>
+  </si>
+  <si>
+    <t>2020欣欣读书月-30 2020欣欣读书月</t>
+  </si>
+  <si>
+    <t>2020欣欣读书月-31 2020欣欣读书月</t>
+  </si>
+  <si>
+    <t>2020欣欣读书月-32 2020欣欣读书月</t>
+  </si>
+  <si>
+    <t>2020欣欣读书月-33 2020欣欣读书月</t>
+  </si>
+  <si>
+    <t>2020欣美乡村学校-1 2020欣美乡村学校项目</t>
+  </si>
+  <si>
+    <t>2020欣美乡村学校项目</t>
+  </si>
+  <si>
+    <t>340 - 吉林省舒兰市谭家村育宜欣欣小學</t>
+  </si>
+  <si>
+    <t>捐赠 1.液晶屏电教班班通设备7套，2.台式办公电脑1台，3.黑白激光多功能一体机（打印、复印、扫描）1部。4.文体设施：包含兵乓球拍10副及乒乓球100个、乒乓球训练器30套、足球10个、排球10个、篮球20个、跳绳60条、坐位体前屈测试仪一套。</t>
+  </si>
+  <si>
+    <t>吉林省舒兰市莲花乡谭家村小学</t>
+  </si>
+  <si>
+    <t>吉林省舒兰市教育局</t>
+  </si>
+  <si>
+    <t>2020欣美乡村学校-2 2020欣美乡村学校项目</t>
+  </si>
+  <si>
+    <t>捐赠 1.液晶屏电教班班通设备3套。2.台式办公电脑1台。3.捐赠笔记本电脑1台。4.黑白激光多功能一体机（打印、复印、扫描）1部。5.文体设施：包含兵乓球桌2张、乒乓球拍10副及乒乓球100个、篮球10个、羽毛球拍10副及羽毛球10筒、皮球30个、跳绳40根、体操垫10块、电子秒表4块、身高测试仪一套、体重测试仪一套、肺活量测试仪一套、体育器材柜一个。</t>
+  </si>
+  <si>
+    <t>2020班班通电子设备项目-4 2020班班通电子设备项目申请表-10049</t>
+  </si>
+  <si>
+    <t>2020班班通电子设备项目申请表-10049</t>
+  </si>
+  <si>
+    <t>一体机设备2套</t>
+  </si>
+  <si>
+    <t>2020班班通电子设备项目-5 2020班班通电子设备项目申请表-10116</t>
+  </si>
+  <si>
+    <t>2020班班通电子设备项目申请表-10116</t>
+  </si>
+  <si>
+    <t>145 - 云南威信县双河乡天池村彭周欣欣小学</t>
+  </si>
+  <si>
+    <t>威信县双河苗族彝族天池欣欣希望小学</t>
+  </si>
+  <si>
+    <t>威信县教育体育局</t>
+  </si>
+  <si>
+    <t>2020班班通电子设备项目-7 2020班班通电子设备项目申请表-10165</t>
+  </si>
+  <si>
+    <t>2020班班通电子设备项目申请表-10165</t>
+  </si>
+  <si>
+    <t>69 - 宁夏海原县西安乡付套华华欣欣小学</t>
+  </si>
+  <si>
+    <t>宁夏海原县西安镇中心小学</t>
+  </si>
+  <si>
+    <t>2020班班通电子设备项目-3 2020班班通电子设备项目申请表-10186</t>
+  </si>
+  <si>
+    <t>2020班班通电子设备项目申请表-10186</t>
+  </si>
+  <si>
+    <t>22 - 云南省泸西县旧城镇旧龙寨广恩欣欣小学</t>
+  </si>
+  <si>
+    <t>云南省泸西县旧城镇路溪白小学</t>
+  </si>
+  <si>
+    <t>沪西县教育体育局</t>
+  </si>
+  <si>
+    <t>2020班班通电子设备项目-1 2020班班通电子设备项目申请表-10282</t>
+  </si>
+  <si>
+    <t>2020班班通电子设备项目申请表-10282</t>
+  </si>
+  <si>
+    <t>2020-10-10</t>
+  </si>
+  <si>
+    <t>2020班班通电子设备项目-2 2020班班通电子设备项目申请表-10286</t>
+  </si>
+  <si>
+    <t>2020班班通电子设备项目申请表-10286</t>
+  </si>
+  <si>
+    <t>2020班班通电子设备项目-6 2020班班通电子设备项目申请表-10299</t>
+  </si>
+  <si>
+    <t>2020班班通电子设备项目申请表-10299</t>
+  </si>
+  <si>
+    <t>2020班班通电子设备项目-8 2020班班通电子设备项目申请表-10337</t>
+  </si>
+  <si>
+    <t>2020班班通电子设备项目申请表-10337</t>
+  </si>
+  <si>
+    <t>一体机1套</t>
+  </si>
+  <si>
+    <t>阅读教育项目2020-11 2020阅读教育项目申请表-10020</t>
+  </si>
+  <si>
+    <t>2020阅读教育项目申请表-10020</t>
+  </si>
+  <si>
+    <t>2020-11-12</t>
+  </si>
+  <si>
+    <t>2位老师参加培训</t>
+  </si>
+  <si>
+    <t>阅读教育项目2020-9 2020阅读教育项目申请表-10036</t>
+  </si>
+  <si>
+    <t>2020阅读教育项目申请表-10036</t>
+  </si>
+  <si>
+    <t>2020-07-01</t>
+  </si>
+  <si>
+    <t>培训3人</t>
+  </si>
+  <si>
+    <t>阅读教育项目2020-4 2020阅读教育项目申请表-10049</t>
+  </si>
+  <si>
+    <t>2020阅读教育项目申请表-10049</t>
+  </si>
+  <si>
+    <t>2020-12-02</t>
+  </si>
+  <si>
+    <t>三位老师参加培训</t>
+  </si>
+  <si>
+    <t>阅读教育项目2020-13 2020阅读教育项目申请表-10121</t>
+  </si>
+  <si>
+    <t>2020阅读教育项目申请表-10121</t>
+  </si>
+  <si>
+    <t>150 - 河南省巩义市芝田镇怡安欣欣中心小学</t>
+  </si>
+  <si>
+    <t>巩义市芝田镇中心小学</t>
+  </si>
+  <si>
+    <t>巩义市教育局</t>
+  </si>
+  <si>
+    <t>阅读教育项目2020-3 2020阅读教育项目申请表-10127</t>
+  </si>
+  <si>
+    <t>2020阅读教育项目申请表-10127</t>
+  </si>
+  <si>
+    <t>培训2人</t>
+  </si>
+  <si>
+    <t>阅读教育项目2020-2 2020阅读教育项目申请表-10151</t>
+  </si>
+  <si>
+    <t>2020阅读教育项目申请表-10151</t>
+  </si>
+  <si>
+    <t>阅读教育项目2020-7 2020阅读教育项目申请表-10155</t>
+  </si>
+  <si>
+    <t>2020阅读教育项目申请表-10155</t>
+  </si>
+  <si>
+    <t>阅读教育项目2020-8 2020阅读教育项目申请表-10169</t>
+  </si>
+  <si>
+    <t>2020阅读教育项目申请表-10169</t>
+  </si>
+  <si>
+    <t>阅读教育项目2020-12 2020阅读教育项目申请表-10176</t>
+  </si>
+  <si>
+    <t>2020阅读教育项目申请表-10176</t>
+  </si>
+  <si>
+    <t>阅读教育项目2020-1 2020阅读教育项目申请表-10209</t>
+  </si>
+  <si>
+    <t>2020阅读教育项目申请表-10209</t>
+  </si>
+  <si>
+    <t>阅读教育项目2020-10 2020阅读教育项目申请表-10269</t>
+  </si>
+  <si>
+    <t>2020阅读教育项目申请表-10269</t>
+  </si>
+  <si>
+    <t>阅读教育项目2020-5 2020阅读教育项目申请表-10270</t>
+  </si>
+  <si>
+    <t>2020阅读教育项目申请表-10270</t>
+  </si>
+  <si>
+    <t>一位老师参加培训</t>
+  </si>
+  <si>
+    <t>阅读教育项目2020-6 2020阅读教育项目申请表-10339</t>
+  </si>
+  <si>
+    <t>2020阅读教育项目申请表-10339</t>
+  </si>
+  <si>
+    <t>NS2020-2 四川广元</t>
+  </si>
+  <si>
+    <t>333 - 四川广元市平溪乡飞翔欣欣小学</t>
+  </si>
+  <si>
+    <t>2020-01-26</t>
+  </si>
+  <si>
+    <t>四川广元市朝天区曾家镇第二小学</t>
+  </si>
+  <si>
+    <t>NS2020-1 江西上饶</t>
+  </si>
+  <si>
+    <t>348 - 江西省上饶市广信区昌琪欣欣小学</t>
+  </si>
+  <si>
+    <t>2021-06-01</t>
+  </si>
+  <si>
+    <t>黄沙岭乡蔡家村小学</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>NS2020-5 湖南祁阳</t>
+  </si>
+  <si>
+    <t>354 - 湖南省祁阳县下马渡镇梅芙欣欣中心小学</t>
+  </si>
+  <si>
+    <t>祁阳市下马渡镇中心小学</t>
+  </si>
+  <si>
+    <t>祁阳市教育局</t>
+  </si>
+  <si>
+    <t>NS2020-4 黑龙江牡丹江</t>
+  </si>
+  <si>
+    <t>339 - 黑龙江省牡丹江市海南朝鲜族乡林美英欣欣中心小学</t>
+  </si>
+  <si>
+    <t>牡丹江市海南朝鲜族乡汉族中心校</t>
+  </si>
+  <si>
+    <t>西安区教育体育局</t>
+  </si>
+  <si>
+    <t>NS2020-3 黑龙江齐齐哈尔</t>
+  </si>
+  <si>
+    <t>334 - 黑龙江省齐齐哈尔市龙江县山泉镇阳光欣欣中心小学</t>
+  </si>
+  <si>
+    <t>黑龙江省齐齐哈尔市龙江县山泉镇中心小学</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -5096,6 +6368,12 @@
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
     </font>
   </fonts>
   <fills count="4">
@@ -5237,7 +6515,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -5282,6 +6560,42 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6443,10 +7757,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K504"/>
+  <dimension ref="A1:K657"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A371" workbookViewId="0">
+      <selection activeCell="B509" sqref="B509"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6455,7 +7769,7 @@
     <col min="2" max="2" width="45.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="47.5" style="1" customWidth="1"/>
     <col min="4" max="5" width="10.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.1640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="48.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.1640625" style="1" customWidth="1"/>
@@ -23539,10 +24853,10 @@
         <v>1477</v>
       </c>
       <c r="D500" s="10" t="s">
+        <v>1680</v>
+      </c>
+      <c r="E500" s="10" t="s">
         <v>1663</v>
-      </c>
-      <c r="E500" s="10" t="s">
-        <v>1664</v>
       </c>
       <c r="F500" s="11">
         <v>20485</v>
@@ -23551,7 +24865,7 @@
         <v>17</v>
       </c>
       <c r="H500" s="10" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="I500" s="13">
         <v>179</v>
@@ -23563,19 +24877,19 @@
     </row>
     <row r="501" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A501" s="8" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B501" s="9" t="s">
         <v>1666</v>
       </c>
-      <c r="B501" s="9" t="s">
+      <c r="C501" s="10" t="s">
         <v>1667</v>
       </c>
-      <c r="C501" s="10" t="s">
-        <v>1668</v>
-      </c>
       <c r="D501" s="10" t="s">
-        <v>1669</v>
+        <v>1681</v>
       </c>
       <c r="E501" s="10" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="F501" s="11">
         <v>200000</v>
@@ -23584,33 +24898,33 @@
         <v>17</v>
       </c>
       <c r="H501" s="10" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="I501" s="13">
         <v>350</v>
       </c>
       <c r="J501" s="10" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="K501" s="10" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="502" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A502" s="8" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="B502" s="9" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="C502" s="10" t="s">
         <v>1606</v>
       </c>
       <c r="D502" s="10" t="s">
-        <v>1675</v>
+        <v>739</v>
       </c>
       <c r="E502" s="10" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
       <c r="F502" s="11">
         <v>85285</v>
@@ -23619,7 +24933,7 @@
         <v>17</v>
       </c>
       <c r="H502" s="10" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="I502" s="13">
         <v>209</v>
@@ -23633,16 +24947,16 @@
     </row>
     <row r="503" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A503" s="8" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
       <c r="B503" s="9" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="C503" s="10" t="s">
         <v>1484</v>
       </c>
       <c r="D503" s="10" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="E503" s="10" t="s">
         <v>16</v>
@@ -23654,7 +24968,7 @@
         <v>17</v>
       </c>
       <c r="H503" s="10" t="s">
-        <v>1681</v>
+        <v>1677</v>
       </c>
       <c r="I503" s="13">
         <v>32</v>
@@ -23668,16 +24982,16 @@
     </row>
     <row r="504" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A504" s="8" t="s">
-        <v>1682</v>
+        <v>1678</v>
       </c>
       <c r="B504" s="9" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="C504" s="10" t="s">
         <v>151</v>
       </c>
       <c r="D504" s="10" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="E504" s="10" t="s">
         <v>16</v>
@@ -23689,7 +25003,7 @@
         <v>17</v>
       </c>
       <c r="H504" s="10" t="s">
-        <v>1683</v>
+        <v>1679</v>
       </c>
       <c r="I504" s="13">
         <v>173</v>
@@ -23701,7 +25015,5269 @@
         <v>155</v>
       </c>
     </row>
+    <row r="505" spans="1:11" s="20" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A505" s="15" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B505" s="16" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C505" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D505" s="17" t="s">
+        <v>1685</v>
+      </c>
+      <c r="E505" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F505" s="18">
+        <v>4320</v>
+      </c>
+      <c r="G505" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H505" s="17" t="s">
+        <v>1686</v>
+      </c>
+      <c r="I505" s="19">
+        <v>12</v>
+      </c>
+      <c r="J505" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="K505" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="506" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A506" s="21" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B506" s="22" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C506" s="23" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D506" s="23" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E506" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F506" s="24">
+        <v>8640</v>
+      </c>
+      <c r="G506" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H506" s="23" t="s">
+        <v>1690</v>
+      </c>
+      <c r="I506" s="25">
+        <v>176</v>
+      </c>
+      <c r="J506" s="23" t="s">
+        <v>1039</v>
+      </c>
+      <c r="K506" s="23" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="507" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A507" s="21" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B507" s="22" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C507" s="23" t="s">
+        <v>475</v>
+      </c>
+      <c r="D507" s="23" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E507" s="23" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F507" s="24">
+        <v>49200</v>
+      </c>
+      <c r="G507" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H507" s="23" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I507" s="25">
+        <v>206</v>
+      </c>
+      <c r="J507" s="23" t="s">
+        <v>476</v>
+      </c>
+      <c r="K507" s="23" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="508" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A508" s="21" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B508" s="22" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C508" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="D508" s="23" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E508" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F508" s="24">
+        <v>60120</v>
+      </c>
+      <c r="G508" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H508" s="23" t="s">
+        <v>1698</v>
+      </c>
+      <c r="I508" s="25">
+        <v>213</v>
+      </c>
+      <c r="J508" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="K508" s="23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="509" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A509" s="21" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B509" s="22" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C509" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="D509" s="23" t="s">
+        <v>1701</v>
+      </c>
+      <c r="E509" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F509" s="24">
+        <v>20000</v>
+      </c>
+      <c r="G509" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H509" s="23" t="s">
+        <v>1702</v>
+      </c>
+      <c r="I509" s="25">
+        <v>194</v>
+      </c>
+      <c r="J509" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="K509" s="23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="510" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A510" s="21" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B510" s="22" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C510" s="23" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D510" s="23" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E510" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F510" s="24">
+        <v>4320</v>
+      </c>
+      <c r="G510" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H510" s="23" t="s">
+        <v>1706</v>
+      </c>
+      <c r="I510" s="25">
+        <v>201</v>
+      </c>
+      <c r="J510" s="23" t="s">
+        <v>1551</v>
+      </c>
+      <c r="K510" s="23" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="511" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A511" s="21" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B511" s="22" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C511" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="D511" s="23" t="s">
+        <v>1709</v>
+      </c>
+      <c r="E511" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F511" s="24">
+        <v>8640</v>
+      </c>
+      <c r="G511" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H511" s="23" t="s">
+        <v>1690</v>
+      </c>
+      <c r="I511" s="25">
+        <v>180</v>
+      </c>
+      <c r="J511" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="K511" s="23" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="512" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A512" s="21" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B512" s="22" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C512" s="23" t="s">
+        <v>1712</v>
+      </c>
+      <c r="D512" s="23" t="s">
+        <v>1713</v>
+      </c>
+      <c r="E512" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F512" s="24">
+        <v>4320</v>
+      </c>
+      <c r="G512" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H512" s="23" t="s">
+        <v>1714</v>
+      </c>
+      <c r="I512" s="25">
+        <v>225</v>
+      </c>
+      <c r="J512" s="23" t="s">
+        <v>1715</v>
+      </c>
+      <c r="K512" s="23" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="513" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A513" s="21" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B513" s="22" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C513" s="23" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D513" s="23" t="s">
+        <v>1719</v>
+      </c>
+      <c r="E513" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F513" s="24">
+        <v>0</v>
+      </c>
+      <c r="G513" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="H513" s="23" t="s">
+        <v>1720</v>
+      </c>
+      <c r="I513" s="25">
+        <v>203</v>
+      </c>
+      <c r="J513" s="23" t="s">
+        <v>1219</v>
+      </c>
+      <c r="K513" s="23" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="514" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A514" s="21" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B514" s="22" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C514" s="23" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D514" s="23" t="s">
+        <v>1685</v>
+      </c>
+      <c r="E514" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F514" s="24">
+        <v>4320</v>
+      </c>
+      <c r="G514" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H514" s="23" t="s">
+        <v>1724</v>
+      </c>
+      <c r="I514" s="25">
+        <v>205</v>
+      </c>
+      <c r="J514" s="23" t="s">
+        <v>1725</v>
+      </c>
+      <c r="K514" s="23" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="515" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A515" s="21" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B515" s="22" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C515" s="23" t="s">
+        <v>830</v>
+      </c>
+      <c r="D515" s="23" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E515" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F515" s="24">
+        <v>3090</v>
+      </c>
+      <c r="G515" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H515" s="23" t="s">
+        <v>1714</v>
+      </c>
+      <c r="I515" s="25">
+        <v>212</v>
+      </c>
+      <c r="J515" s="23" t="s">
+        <v>833</v>
+      </c>
+      <c r="K515" s="23" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="516" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A516" s="21" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B516" s="22" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C516" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="D516" s="23" t="s">
+        <v>1730</v>
+      </c>
+      <c r="E516" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F516" s="24">
+        <v>60120</v>
+      </c>
+      <c r="G516" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H516" s="23" t="s">
+        <v>1731</v>
+      </c>
+      <c r="I516" s="25">
+        <v>112</v>
+      </c>
+      <c r="J516" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="K516" s="23" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="517" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A517" s="21" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B517" s="22" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C517" s="23" t="s">
+        <v>502</v>
+      </c>
+      <c r="D517" s="23" t="s">
+        <v>1734</v>
+      </c>
+      <c r="E517" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F517" s="24">
+        <v>60120</v>
+      </c>
+      <c r="G517" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H517" s="23" t="s">
+        <v>1731</v>
+      </c>
+      <c r="I517" s="25">
+        <v>122</v>
+      </c>
+      <c r="J517" s="23" t="s">
+        <v>504</v>
+      </c>
+      <c r="K517" s="23" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="518" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A518" s="21" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B518" s="22" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C518" s="23" t="s">
+        <v>742</v>
+      </c>
+      <c r="D518" s="23" t="s">
+        <v>1685</v>
+      </c>
+      <c r="E518" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F518" s="24">
+        <v>4320</v>
+      </c>
+      <c r="G518" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H518" s="23" t="s">
+        <v>1686</v>
+      </c>
+      <c r="I518" s="25">
+        <v>132</v>
+      </c>
+      <c r="J518" s="23" t="s">
+        <v>744</v>
+      </c>
+      <c r="K518" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="519" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A519" s="21" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B519" s="22" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C519" s="23" t="s">
+        <v>1739</v>
+      </c>
+      <c r="D519" s="23" t="s">
+        <v>1740</v>
+      </c>
+      <c r="E519" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F519" s="24">
+        <v>18640</v>
+      </c>
+      <c r="G519" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H519" s="23" t="s">
+        <v>1741</v>
+      </c>
+      <c r="I519" s="25">
+        <v>58</v>
+      </c>
+      <c r="J519" s="23" t="s">
+        <v>1742</v>
+      </c>
+      <c r="K519" s="23" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="520" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A520" s="21" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B520" s="22" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C520" s="23" t="s">
+        <v>654</v>
+      </c>
+      <c r="D520" s="23" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E520" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F520" s="24">
+        <v>6820</v>
+      </c>
+      <c r="G520" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H520" s="23" t="s">
+        <v>1745</v>
+      </c>
+      <c r="I520" s="25">
+        <v>61</v>
+      </c>
+      <c r="J520" s="23" t="s">
+        <v>657</v>
+      </c>
+      <c r="K520" s="23" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="521" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A521" s="21" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B521" s="22" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C521" s="23" t="s">
+        <v>1748</v>
+      </c>
+      <c r="D521" s="23" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E521" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F521" s="24">
+        <v>4320</v>
+      </c>
+      <c r="G521" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H521" s="23" t="s">
+        <v>1686</v>
+      </c>
+      <c r="I521" s="25">
+        <v>64</v>
+      </c>
+      <c r="J521" s="23" t="s">
+        <v>1749</v>
+      </c>
+      <c r="K521" s="23" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="522" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A522" s="21" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B522" s="22" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C522" s="23" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D522" s="23" t="s">
+        <v>1754</v>
+      </c>
+      <c r="E522" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F522" s="24">
+        <v>8640</v>
+      </c>
+      <c r="G522" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H522" s="23" t="s">
+        <v>1755</v>
+      </c>
+      <c r="I522" s="25">
+        <v>29</v>
+      </c>
+      <c r="J522" s="23" t="s">
+        <v>1756</v>
+      </c>
+      <c r="K522" s="23" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="523" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A523" s="21" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B523" s="22" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C523" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D523" s="23" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E523" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F523" s="24">
+        <v>40950</v>
+      </c>
+      <c r="G523" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H523" s="23" t="s">
+        <v>1761</v>
+      </c>
+      <c r="I523" s="25">
+        <v>35</v>
+      </c>
+      <c r="J523" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="K523" s="23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="524" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A524" s="21" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B524" s="22" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C524" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="D524" s="23" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E524" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F524" s="24">
+        <v>8640</v>
+      </c>
+      <c r="G524" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H524" s="23" t="s">
+        <v>1764</v>
+      </c>
+      <c r="I524" s="25">
+        <v>1</v>
+      </c>
+      <c r="J524" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="K524" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="525" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A525" s="21" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B525" s="22" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C525" s="23" t="s">
+        <v>872</v>
+      </c>
+      <c r="D525" s="23" t="s">
+        <v>1767</v>
+      </c>
+      <c r="E525" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F525" s="24">
+        <v>4320</v>
+      </c>
+      <c r="G525" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H525" s="23" t="s">
+        <v>1686</v>
+      </c>
+      <c r="I525" s="25">
+        <v>5</v>
+      </c>
+      <c r="J525" s="23" t="s">
+        <v>874</v>
+      </c>
+      <c r="K525" s="23" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="526" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A526" s="21" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B526" s="22" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C526" s="23" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D526" s="23" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E526" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F526" s="24">
+        <v>4320</v>
+      </c>
+      <c r="G526" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H526" s="23" t="s">
+        <v>1686</v>
+      </c>
+      <c r="I526" s="25">
+        <v>11</v>
+      </c>
+      <c r="J526" s="23" t="s">
+        <v>1771</v>
+      </c>
+      <c r="K526" s="23" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="527" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A527" s="21" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B527" s="22" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C527" s="23" t="s">
+        <v>1775</v>
+      </c>
+      <c r="D527" s="23" t="s">
+        <v>1685</v>
+      </c>
+      <c r="E527" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F527" s="24">
+        <v>3090</v>
+      </c>
+      <c r="G527" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H527" s="23" t="s">
+        <v>1776</v>
+      </c>
+      <c r="I527" s="25">
+        <v>263</v>
+      </c>
+      <c r="J527" s="23" t="s">
+        <v>1777</v>
+      </c>
+      <c r="K527" s="23" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="528" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A528" s="21" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B528" s="22" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C528" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="D528" s="23" t="s">
+        <v>1781</v>
+      </c>
+      <c r="E528" s="23" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F528" s="24">
+        <v>59520</v>
+      </c>
+      <c r="G528" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H528" s="23" t="s">
+        <v>1782</v>
+      </c>
+      <c r="I528" s="25">
+        <v>253</v>
+      </c>
+      <c r="J528" s="23" t="s">
+        <v>441</v>
+      </c>
+      <c r="K528" s="23" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="529" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A529" s="21" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B529" s="22" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C529" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="D529" s="23" t="s">
+        <v>1785</v>
+      </c>
+      <c r="E529" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F529" s="24">
+        <v>8640</v>
+      </c>
+      <c r="G529" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H529" s="23" t="s">
+        <v>1690</v>
+      </c>
+      <c r="I529" s="25">
+        <v>297</v>
+      </c>
+      <c r="J529" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="K529" s="23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="530" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A530" s="21" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B530" s="22" t="s">
+        <v>1787</v>
+      </c>
+      <c r="C530" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D530" s="23" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E530" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F530" s="24">
+        <v>4320</v>
+      </c>
+      <c r="G530" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H530" s="23" t="s">
+        <v>1714</v>
+      </c>
+      <c r="I530" s="25">
+        <v>268</v>
+      </c>
+      <c r="J530" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="K530" s="23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="531" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A531" s="21" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B531" s="22" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C531" s="23" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D531" s="23" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E531" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F531" s="24">
+        <v>3090</v>
+      </c>
+      <c r="G531" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H531" s="23" t="s">
+        <v>1714</v>
+      </c>
+      <c r="I531" s="25">
+        <v>280</v>
+      </c>
+      <c r="J531" s="23" t="s">
+        <v>1408</v>
+      </c>
+      <c r="K531" s="23" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="532" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A532" s="21" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B532" s="22" t="s">
+        <v>1791</v>
+      </c>
+      <c r="C532" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="D532" s="23" t="s">
+        <v>1740</v>
+      </c>
+      <c r="E532" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F532" s="24">
+        <v>4320</v>
+      </c>
+      <c r="G532" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H532" s="23" t="s">
+        <v>1792</v>
+      </c>
+      <c r="I532" s="25">
+        <v>300</v>
+      </c>
+      <c r="J532" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="K532" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="533" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A533" s="21" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B533" s="22" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C533" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="D533" s="23" t="s">
+        <v>1685</v>
+      </c>
+      <c r="E533" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F533" s="24">
+        <v>30000</v>
+      </c>
+      <c r="G533" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H533" s="23" t="s">
+        <v>1795</v>
+      </c>
+      <c r="I533" s="25">
+        <v>324</v>
+      </c>
+      <c r="J533" s="23" t="s">
+        <v>460</v>
+      </c>
+      <c r="K533" s="23" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="534" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A534" s="21" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B534" s="22" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C534" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="D534" s="23" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E534" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F534" s="24">
+        <v>4320</v>
+      </c>
+      <c r="G534" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H534" s="23" t="s">
+        <v>1792</v>
+      </c>
+      <c r="I534" s="25">
+        <v>322</v>
+      </c>
+      <c r="J534" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="K534" s="23" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="535" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A535" s="21" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B535" s="22" t="s">
+        <v>1799</v>
+      </c>
+      <c r="C535" s="23" t="s">
+        <v>1800</v>
+      </c>
+      <c r="D535" s="23" t="s">
+        <v>1740</v>
+      </c>
+      <c r="E535" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F535" s="24">
+        <v>3090</v>
+      </c>
+      <c r="G535" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H535" s="23" t="s">
+        <v>1801</v>
+      </c>
+      <c r="I535" s="25">
+        <v>329</v>
+      </c>
+      <c r="J535" s="23" t="s">
+        <v>1802</v>
+      </c>
+      <c r="K535" s="23" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="536" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A536" s="21" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B536" s="22" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C536" s="23" t="s">
+        <v>540</v>
+      </c>
+      <c r="D536" s="23" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E536" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F536" s="24">
+        <v>4320</v>
+      </c>
+      <c r="G536" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H536" s="23" t="s">
+        <v>1714</v>
+      </c>
+      <c r="I536" s="25">
+        <v>328</v>
+      </c>
+      <c r="J536" s="23" t="s">
+        <v>542</v>
+      </c>
+      <c r="K536" s="23" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="537" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A537" s="21" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B537" s="22" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C537" s="23" t="s">
+        <v>490</v>
+      </c>
+      <c r="D537" s="23" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E537" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F537" s="24">
+        <v>3090</v>
+      </c>
+      <c r="G537" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H537" s="23" t="s">
+        <v>1714</v>
+      </c>
+      <c r="I537" s="25">
+        <v>343</v>
+      </c>
+      <c r="J537" s="23" t="s">
+        <v>491</v>
+      </c>
+      <c r="K537" s="23" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="538" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A538" s="21" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B538" s="22" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C538" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="D538" s="23" t="s">
+        <v>1810</v>
+      </c>
+      <c r="E538" s="23" t="s">
+        <v>1811</v>
+      </c>
+      <c r="F538" s="24">
+        <v>6201</v>
+      </c>
+      <c r="G538" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H538" s="26"/>
+      <c r="I538" s="25">
+        <v>20</v>
+      </c>
+      <c r="J538" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="K538" s="23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="539" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A539" s="21" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B539" s="22" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C539" s="23" t="s">
+        <v>629</v>
+      </c>
+      <c r="D539" s="23" t="s">
+        <v>1810</v>
+      </c>
+      <c r="E539" s="23" t="s">
+        <v>1811</v>
+      </c>
+      <c r="F539" s="24">
+        <v>3530</v>
+      </c>
+      <c r="G539" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H539" s="26"/>
+      <c r="I539" s="25">
+        <v>325</v>
+      </c>
+      <c r="J539" s="23" t="s">
+        <v>631</v>
+      </c>
+      <c r="K539" s="23" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="540" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A540" s="21" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B540" s="22" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C540" s="23" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D540" s="23" t="s">
+        <v>1810</v>
+      </c>
+      <c r="E540" s="23" t="s">
+        <v>1811</v>
+      </c>
+      <c r="F540" s="24">
+        <v>387.88</v>
+      </c>
+      <c r="G540" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H540" s="23" t="s">
+        <v>1814</v>
+      </c>
+      <c r="I540" s="25">
+        <v>209</v>
+      </c>
+      <c r="J540" s="23" t="s">
+        <v>1608</v>
+      </c>
+      <c r="K540" s="23" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="541" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A541" s="21" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B541" s="22" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C541" s="23" t="s">
+        <v>1816</v>
+      </c>
+      <c r="D541" s="23" t="s">
+        <v>1810</v>
+      </c>
+      <c r="E541" s="23" t="s">
+        <v>1811</v>
+      </c>
+      <c r="F541" s="24">
+        <v>2959</v>
+      </c>
+      <c r="G541" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H541" s="26"/>
+      <c r="I541" s="25">
+        <v>219</v>
+      </c>
+      <c r="J541" s="23" t="s">
+        <v>1817</v>
+      </c>
+      <c r="K541" s="23" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="542" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A542" s="21" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B542" s="22" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C542" s="23" t="s">
+        <v>475</v>
+      </c>
+      <c r="D542" s="23" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E542" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F542" s="24">
+        <v>20000</v>
+      </c>
+      <c r="G542" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H542" s="23" t="s">
+        <v>1821</v>
+      </c>
+      <c r="I542" s="25">
+        <v>206</v>
+      </c>
+      <c r="J542" s="23" t="s">
+        <v>476</v>
+      </c>
+      <c r="K542" s="23" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="543" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A543" s="21" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B543" s="22" t="s">
+        <v>1823</v>
+      </c>
+      <c r="C543" s="23" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D543" s="23" t="s">
+        <v>1824</v>
+      </c>
+      <c r="E543" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F543" s="24">
+        <v>5000</v>
+      </c>
+      <c r="G543" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H543" s="23" t="s">
+        <v>1825</v>
+      </c>
+      <c r="I543" s="25">
+        <v>209</v>
+      </c>
+      <c r="J543" s="23" t="s">
+        <v>1608</v>
+      </c>
+      <c r="K543" s="23" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="544" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A544" s="21" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B544" s="22" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C544" s="23" t="s">
+        <v>837</v>
+      </c>
+      <c r="D544" s="23" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E544" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F544" s="24">
+        <v>5000</v>
+      </c>
+      <c r="G544" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H544" s="23" t="s">
+        <v>1829</v>
+      </c>
+      <c r="I544" s="25">
+        <v>181</v>
+      </c>
+      <c r="J544" s="23" t="s">
+        <v>839</v>
+      </c>
+      <c r="K544" s="23" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="545" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A545" s="21" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B545" s="22" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C545" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="D545" s="23" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E545" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F545" s="24">
+        <v>10000</v>
+      </c>
+      <c r="G545" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H545" s="23" t="s">
+        <v>1832</v>
+      </c>
+      <c r="I545" s="25">
+        <v>223</v>
+      </c>
+      <c r="J545" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="K545" s="23" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="546" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A546" s="21" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B546" s="22" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C546" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="D546" s="23" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E546" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F546" s="24">
+        <v>10000</v>
+      </c>
+      <c r="G546" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H546" s="23" t="s">
+        <v>1835</v>
+      </c>
+      <c r="I546" s="25">
+        <v>109</v>
+      </c>
+      <c r="J546" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="K546" s="23" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="547" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A547" s="21" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B547" s="22" t="s">
+        <v>1837</v>
+      </c>
+      <c r="C547" s="23" t="s">
+        <v>1838</v>
+      </c>
+      <c r="D547" s="23" t="s">
+        <v>1740</v>
+      </c>
+      <c r="E547" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F547" s="24">
+        <v>10000</v>
+      </c>
+      <c r="G547" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H547" s="23" t="s">
+        <v>1839</v>
+      </c>
+      <c r="I547" s="25">
+        <v>111</v>
+      </c>
+      <c r="J547" s="23" t="s">
+        <v>1840</v>
+      </c>
+      <c r="K547" s="23" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="548" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A548" s="21" t="s">
+        <v>1842</v>
+      </c>
+      <c r="B548" s="22" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C548" s="23" t="s">
+        <v>654</v>
+      </c>
+      <c r="D548" s="23" t="s">
+        <v>1740</v>
+      </c>
+      <c r="E548" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F548" s="24">
+        <v>10000</v>
+      </c>
+      <c r="G548" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H548" s="23" t="s">
+        <v>1844</v>
+      </c>
+      <c r="I548" s="25">
+        <v>61</v>
+      </c>
+      <c r="J548" s="23" t="s">
+        <v>657</v>
+      </c>
+      <c r="K548" s="23" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="549" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A549" s="21" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B549" s="22" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C549" s="23" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D549" s="23" t="s">
+        <v>1847</v>
+      </c>
+      <c r="E549" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F549" s="24">
+        <v>10000</v>
+      </c>
+      <c r="G549" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H549" s="23" t="s">
+        <v>1848</v>
+      </c>
+      <c r="I549" s="25">
+        <v>29</v>
+      </c>
+      <c r="J549" s="23" t="s">
+        <v>1756</v>
+      </c>
+      <c r="K549" s="23" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="550" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A550" s="21" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B550" s="22" t="s">
+        <v>1850</v>
+      </c>
+      <c r="C550" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="D550" s="23" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E550" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F550" s="24">
+        <v>10000</v>
+      </c>
+      <c r="G550" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H550" s="23" t="s">
+        <v>1851</v>
+      </c>
+      <c r="I550" s="25">
+        <v>1</v>
+      </c>
+      <c r="J550" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="K550" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="551" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A551" s="21" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B551" s="22" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C551" s="23" t="s">
+        <v>872</v>
+      </c>
+      <c r="D551" s="23" t="s">
+        <v>1767</v>
+      </c>
+      <c r="E551" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F551" s="24">
+        <v>10000</v>
+      </c>
+      <c r="G551" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H551" s="23" t="s">
+        <v>1854</v>
+      </c>
+      <c r="I551" s="25">
+        <v>5</v>
+      </c>
+      <c r="J551" s="23" t="s">
+        <v>874</v>
+      </c>
+      <c r="K551" s="23" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="552" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A552" s="21" t="s">
+        <v>1855</v>
+      </c>
+      <c r="B552" s="22" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C552" s="23" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D552" s="23" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E552" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F552" s="24">
+        <v>10000</v>
+      </c>
+      <c r="G552" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H552" s="23" t="s">
+        <v>1857</v>
+      </c>
+      <c r="I552" s="25">
+        <v>11</v>
+      </c>
+      <c r="J552" s="23" t="s">
+        <v>1771</v>
+      </c>
+      <c r="K552" s="23" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="553" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A553" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B553" s="22" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C553" s="23" t="s">
+        <v>610</v>
+      </c>
+      <c r="D553" s="23" t="s">
+        <v>1740</v>
+      </c>
+      <c r="E553" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F553" s="24">
+        <v>10000</v>
+      </c>
+      <c r="G553" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H553" s="23" t="s">
+        <v>1860</v>
+      </c>
+      <c r="I553" s="25">
+        <v>230</v>
+      </c>
+      <c r="J553" s="23" t="s">
+        <v>612</v>
+      </c>
+      <c r="K553" s="23" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="554" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A554" s="21" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B554" s="22" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C554" s="23" t="s">
+        <v>549</v>
+      </c>
+      <c r="D554" s="23" t="s">
+        <v>1740</v>
+      </c>
+      <c r="E554" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F554" s="24">
+        <v>10000</v>
+      </c>
+      <c r="G554" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H554" s="23" t="s">
+        <v>1863</v>
+      </c>
+      <c r="I554" s="25">
+        <v>278</v>
+      </c>
+      <c r="J554" s="23" t="s">
+        <v>550</v>
+      </c>
+      <c r="K554" s="23" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="555" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A555" s="21" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B555" s="22" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C555" s="23" t="s">
+        <v>635</v>
+      </c>
+      <c r="D555" s="23" t="s">
+        <v>1754</v>
+      </c>
+      <c r="E555" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F555" s="24">
+        <v>10000</v>
+      </c>
+      <c r="G555" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H555" s="23" t="s">
+        <v>1866</v>
+      </c>
+      <c r="I555" s="25">
+        <v>298</v>
+      </c>
+      <c r="J555" s="23" t="s">
+        <v>637</v>
+      </c>
+      <c r="K555" s="23" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="556" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A556" s="21" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B556" s="22" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C556" s="23" t="s">
+        <v>540</v>
+      </c>
+      <c r="D556" s="23" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E556" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F556" s="24">
+        <v>10000</v>
+      </c>
+      <c r="G556" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H556" s="23" t="s">
+        <v>1869</v>
+      </c>
+      <c r="I556" s="25">
+        <v>328</v>
+      </c>
+      <c r="J556" s="23" t="s">
+        <v>542</v>
+      </c>
+      <c r="K556" s="23" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="557" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A557" s="21" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B557" s="22" t="s">
+        <v>1871</v>
+      </c>
+      <c r="C557" s="23" t="s">
+        <v>1872</v>
+      </c>
+      <c r="D557" s="23" t="s">
+        <v>1873</v>
+      </c>
+      <c r="E557" s="23" t="s">
+        <v>1874</v>
+      </c>
+      <c r="F557" s="24">
+        <v>2565</v>
+      </c>
+      <c r="G557" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H557" s="23" t="s">
+        <v>1875</v>
+      </c>
+      <c r="I557" s="25">
+        <v>344</v>
+      </c>
+      <c r="J557" s="23" t="s">
+        <v>1876</v>
+      </c>
+      <c r="K557" s="26"/>
+    </row>
+    <row r="558" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A558" s="21" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B558" s="22" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C558" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="D558" s="23" t="s">
+        <v>1740</v>
+      </c>
+      <c r="E558" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F558" s="24">
+        <v>656</v>
+      </c>
+      <c r="G558" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H558" s="23" t="s">
+        <v>1879</v>
+      </c>
+      <c r="I558" s="25">
+        <v>195</v>
+      </c>
+      <c r="J558" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="K558" s="23" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="559" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A559" s="21" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B559" s="22" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C559" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="D559" s="23" t="s">
+        <v>1882</v>
+      </c>
+      <c r="E559" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F559" s="24">
+        <v>5904</v>
+      </c>
+      <c r="G559" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H559" s="23" t="s">
+        <v>1883</v>
+      </c>
+      <c r="I559" s="25">
+        <v>1</v>
+      </c>
+      <c r="J559" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="K559" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="560" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A560" s="21" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B560" s="22" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C560" s="23" t="s">
+        <v>400</v>
+      </c>
+      <c r="D560" s="23" t="s">
+        <v>1873</v>
+      </c>
+      <c r="E560" s="23" t="s">
+        <v>1874</v>
+      </c>
+      <c r="F560" s="24">
+        <v>328</v>
+      </c>
+      <c r="G560" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H560" s="23" t="s">
+        <v>1886</v>
+      </c>
+      <c r="I560" s="25">
+        <v>251</v>
+      </c>
+      <c r="J560" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="K560" s="23" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="561" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A561" s="21" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B561" s="22" t="s">
+        <v>1888</v>
+      </c>
+      <c r="C561" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D561" s="23" t="s">
+        <v>1889</v>
+      </c>
+      <c r="E561" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F561" s="24">
+        <v>2296</v>
+      </c>
+      <c r="G561" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H561" s="23" t="s">
+        <v>1890</v>
+      </c>
+      <c r="I561" s="25">
+        <v>290</v>
+      </c>
+      <c r="J561" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="K561" s="23" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="562" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A562" s="21" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B562" s="22" t="s">
+        <v>1892</v>
+      </c>
+      <c r="C562" s="23" t="s">
+        <v>635</v>
+      </c>
+      <c r="D562" s="23" t="s">
+        <v>1754</v>
+      </c>
+      <c r="E562" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F562" s="24">
+        <v>984</v>
+      </c>
+      <c r="G562" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H562" s="23" t="s">
+        <v>1893</v>
+      </c>
+      <c r="I562" s="25">
+        <v>298</v>
+      </c>
+      <c r="J562" s="23" t="s">
+        <v>637</v>
+      </c>
+      <c r="K562" s="23" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="563" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A563" s="21" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B563" s="22" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C563" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D563" s="23" t="s">
+        <v>1847</v>
+      </c>
+      <c r="E563" s="23" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F563" s="24">
+        <v>1905.99</v>
+      </c>
+      <c r="G563" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H563" s="23" t="s">
+        <v>1896</v>
+      </c>
+      <c r="I563" s="25">
+        <v>12</v>
+      </c>
+      <c r="J563" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="K563" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="564" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A564" s="21" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B564" s="22" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C564" s="23" t="s">
+        <v>1899</v>
+      </c>
+      <c r="D564" s="23" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E564" s="23" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F564" s="24">
+        <v>1181.1600000000001</v>
+      </c>
+      <c r="G564" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H564" s="23" t="s">
+        <v>1896</v>
+      </c>
+      <c r="I564" s="25">
+        <v>174</v>
+      </c>
+      <c r="J564" s="23" t="s">
+        <v>1900</v>
+      </c>
+      <c r="K564" s="23" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="565" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A565" s="21" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B565" s="22" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C565" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="D565" s="23" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E565" s="23" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F565" s="24">
+        <v>2204.56</v>
+      </c>
+      <c r="G565" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H565" s="23" t="s">
+        <v>1904</v>
+      </c>
+      <c r="I565" s="25">
+        <v>180</v>
+      </c>
+      <c r="J565" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="K565" s="23" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="566" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A566" s="21" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B566" s="22" t="s">
+        <v>1906</v>
+      </c>
+      <c r="C566" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="D566" s="23" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E566" s="23" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F566" s="24">
+        <v>4113.68</v>
+      </c>
+      <c r="G566" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H566" s="23" t="s">
+        <v>1907</v>
+      </c>
+      <c r="I566" s="25">
+        <v>223</v>
+      </c>
+      <c r="J566" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="K566" s="23" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="567" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A567" s="21" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B567" s="22" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C567" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="D567" s="23" t="s">
+        <v>1847</v>
+      </c>
+      <c r="E567" s="23" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F567" s="24">
+        <v>1419.41</v>
+      </c>
+      <c r="G567" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H567" s="23" t="s">
+        <v>1896</v>
+      </c>
+      <c r="I567" s="25">
+        <v>95</v>
+      </c>
+      <c r="J567" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="K567" s="23" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="568" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A568" s="21" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B568" s="22" t="s">
+        <v>1911</v>
+      </c>
+      <c r="C568" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D568" s="23" t="s">
+        <v>1847</v>
+      </c>
+      <c r="E568" s="23" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F568" s="24">
+        <v>637.82000000000005</v>
+      </c>
+      <c r="G568" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H568" s="23" t="s">
+        <v>1896</v>
+      </c>
+      <c r="I568" s="25">
+        <v>98</v>
+      </c>
+      <c r="J568" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="K568" s="23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="569" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A569" s="21" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B569" s="22" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C569" s="23" t="s">
+        <v>587</v>
+      </c>
+      <c r="D569" s="23" t="s">
+        <v>1847</v>
+      </c>
+      <c r="E569" s="23" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F569" s="24">
+        <v>1969.73</v>
+      </c>
+      <c r="G569" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H569" s="23" t="s">
+        <v>1896</v>
+      </c>
+      <c r="I569" s="25">
+        <v>116</v>
+      </c>
+      <c r="J569" s="23" t="s">
+        <v>590</v>
+      </c>
+      <c r="K569" s="23" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="570" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A570" s="21" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B570" s="22" t="s">
+        <v>1915</v>
+      </c>
+      <c r="C570" s="23" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D570" s="23" t="s">
+        <v>1847</v>
+      </c>
+      <c r="E570" s="23" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F570" s="24">
+        <v>3537.14</v>
+      </c>
+      <c r="G570" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H570" s="23" t="s">
+        <v>1896</v>
+      </c>
+      <c r="I570" s="25">
+        <v>136</v>
+      </c>
+      <c r="J570" s="23" t="s">
+        <v>1072</v>
+      </c>
+      <c r="K570" s="23" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="571" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A571" s="21" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B571" s="22" t="s">
+        <v>1917</v>
+      </c>
+      <c r="C571" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="D571" s="23" t="s">
+        <v>1847</v>
+      </c>
+      <c r="E571" s="23" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F571" s="24">
+        <v>2254.6799999999998</v>
+      </c>
+      <c r="G571" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H571" s="23" t="s">
+        <v>1896</v>
+      </c>
+      <c r="I571" s="25">
+        <v>146</v>
+      </c>
+      <c r="J571" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="K571" s="23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="572" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A572" s="21" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B572" s="22" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C572" s="23" t="s">
+        <v>1920</v>
+      </c>
+      <c r="D572" s="23" t="s">
+        <v>1847</v>
+      </c>
+      <c r="E572" s="23" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F572" s="24">
+        <v>318.91000000000003</v>
+      </c>
+      <c r="G572" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H572" s="23" t="s">
+        <v>1921</v>
+      </c>
+      <c r="I572" s="25">
+        <v>147</v>
+      </c>
+      <c r="J572" s="23" t="s">
+        <v>1922</v>
+      </c>
+      <c r="K572" s="23" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="573" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A573" s="21" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B573" s="22" t="s">
+        <v>1925</v>
+      </c>
+      <c r="C573" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="D573" s="23" t="s">
+        <v>1847</v>
+      </c>
+      <c r="E573" s="23" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F573" s="24">
+        <v>8698.07</v>
+      </c>
+      <c r="G573" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H573" s="23" t="s">
+        <v>1926</v>
+      </c>
+      <c r="I573" s="25">
+        <v>156</v>
+      </c>
+      <c r="J573" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="K573" s="23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="574" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A574" s="21" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B574" s="22" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C574" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="D574" s="23" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E574" s="23" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F574" s="24">
+        <v>318.91000000000003</v>
+      </c>
+      <c r="G574" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H574" s="23" t="s">
+        <v>1921</v>
+      </c>
+      <c r="I574" s="25">
+        <v>167</v>
+      </c>
+      <c r="J574" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="K574" s="23" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="575" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A575" s="21" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B575" s="22" t="s">
+        <v>1930</v>
+      </c>
+      <c r="C575" s="23" t="s">
+        <v>686</v>
+      </c>
+      <c r="D575" s="23" t="s">
+        <v>1847</v>
+      </c>
+      <c r="E575" s="23" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F575" s="24">
+        <v>318.91000000000003</v>
+      </c>
+      <c r="G575" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H575" s="23" t="s">
+        <v>1921</v>
+      </c>
+      <c r="I575" s="25">
+        <v>51</v>
+      </c>
+      <c r="J575" s="23" t="s">
+        <v>689</v>
+      </c>
+      <c r="K575" s="23" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="576" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A576" s="21" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B576" s="22" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C576" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D576" s="23" t="s">
+        <v>1847</v>
+      </c>
+      <c r="E576" s="23" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F576" s="24">
+        <v>1520.26</v>
+      </c>
+      <c r="G576" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H576" s="23" t="s">
+        <v>1896</v>
+      </c>
+      <c r="I576" s="25">
+        <v>74</v>
+      </c>
+      <c r="J576" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="K576" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="577" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A577" s="21" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B577" s="22" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C577" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D577" s="23" t="s">
+        <v>1847</v>
+      </c>
+      <c r="E577" s="23" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F577" s="24">
+        <v>818.71</v>
+      </c>
+      <c r="G577" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H577" s="23" t="s">
+        <v>1896</v>
+      </c>
+      <c r="I577" s="25">
+        <v>31</v>
+      </c>
+      <c r="J577" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="K577" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="578" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A578" s="21" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B578" s="22" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C578" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D578" s="23" t="s">
+        <v>1847</v>
+      </c>
+      <c r="E578" s="23" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F578" s="24">
+        <v>1030.05</v>
+      </c>
+      <c r="G578" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H578" s="23" t="s">
+        <v>1896</v>
+      </c>
+      <c r="I578" s="25">
+        <v>35</v>
+      </c>
+      <c r="J578" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="K578" s="23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="579" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A579" s="21" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B579" s="22" t="s">
+        <v>1938</v>
+      </c>
+      <c r="C579" s="23" t="s">
+        <v>700</v>
+      </c>
+      <c r="D579" s="23" t="s">
+        <v>1847</v>
+      </c>
+      <c r="E579" s="23" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F579" s="24">
+        <v>2204.56</v>
+      </c>
+      <c r="G579" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H579" s="23" t="s">
+        <v>1896</v>
+      </c>
+      <c r="I579" s="25">
+        <v>38</v>
+      </c>
+      <c r="J579" s="23" t="s">
+        <v>703</v>
+      </c>
+      <c r="K579" s="23" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="580" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A580" s="21" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B580" s="22" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C580" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="D580" s="23" t="s">
+        <v>1847</v>
+      </c>
+      <c r="E580" s="23" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F580" s="24">
+        <v>318.91000000000003</v>
+      </c>
+      <c r="G580" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H580" s="23" t="s">
+        <v>1921</v>
+      </c>
+      <c r="I580" s="25">
+        <v>44</v>
+      </c>
+      <c r="J580" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="K580" s="23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="581" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A581" s="21" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B581" s="22" t="s">
+        <v>1942</v>
+      </c>
+      <c r="C581" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="D581" s="23" t="s">
+        <v>1847</v>
+      </c>
+      <c r="E581" s="23" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F581" s="24">
+        <v>2087.14</v>
+      </c>
+      <c r="G581" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H581" s="23" t="s">
+        <v>1896</v>
+      </c>
+      <c r="I581" s="25">
+        <v>1</v>
+      </c>
+      <c r="J581" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="K581" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="582" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A582" s="21" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B582" s="22" t="s">
+        <v>1944</v>
+      </c>
+      <c r="C582" s="23" t="s">
+        <v>332</v>
+      </c>
+      <c r="D582" s="23" t="s">
+        <v>1847</v>
+      </c>
+      <c r="E582" s="23" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F582" s="24">
+        <v>318.91000000000003</v>
+      </c>
+      <c r="G582" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H582" s="23" t="s">
+        <v>1945</v>
+      </c>
+      <c r="I582" s="25">
+        <v>2</v>
+      </c>
+      <c r="J582" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="K582" s="23" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="583" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A583" s="21" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B583" s="22" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C583" s="23" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D583" s="23" t="s">
+        <v>1847</v>
+      </c>
+      <c r="E583" s="23" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F583" s="24">
+        <v>6580.17</v>
+      </c>
+      <c r="G583" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H583" s="23" t="s">
+        <v>1896</v>
+      </c>
+      <c r="I583" s="25">
+        <v>3</v>
+      </c>
+      <c r="J583" s="23" t="s">
+        <v>1244</v>
+      </c>
+      <c r="K583" s="23" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="584" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A584" s="21" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B584" s="22" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C584" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="D584" s="23" t="s">
+        <v>1847</v>
+      </c>
+      <c r="E584" s="23" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F584" s="24">
+        <v>1520.26</v>
+      </c>
+      <c r="G584" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H584" s="23" t="s">
+        <v>1896</v>
+      </c>
+      <c r="I584" s="25">
+        <v>20</v>
+      </c>
+      <c r="J584" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="K584" s="23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="585" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A585" s="21" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B585" s="22" t="s">
+        <v>1951</v>
+      </c>
+      <c r="C585" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="D585" s="23" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E585" s="23" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F585" s="24">
+        <v>318.91000000000003</v>
+      </c>
+      <c r="G585" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H585" s="23" t="s">
+        <v>1952</v>
+      </c>
+      <c r="I585" s="25">
+        <v>218</v>
+      </c>
+      <c r="J585" s="23" t="s">
+        <v>407</v>
+      </c>
+      <c r="K585" s="23" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="586" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A586" s="21" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B586" s="22" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C586" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="D586" s="23" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E586" s="23" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F586" s="24">
+        <v>318.91000000000003</v>
+      </c>
+      <c r="G586" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H586" s="23" t="s">
+        <v>1955</v>
+      </c>
+      <c r="I586" s="25">
+        <v>250</v>
+      </c>
+      <c r="J586" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="K586" s="23" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="587" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A587" s="21" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B587" s="22" t="s">
+        <v>1957</v>
+      </c>
+      <c r="C587" s="23" t="s">
+        <v>610</v>
+      </c>
+      <c r="D587" s="23" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E587" s="23" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F587" s="24">
+        <v>2342.31</v>
+      </c>
+      <c r="G587" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H587" s="23" t="s">
+        <v>1896</v>
+      </c>
+      <c r="I587" s="25">
+        <v>230</v>
+      </c>
+      <c r="J587" s="23" t="s">
+        <v>612</v>
+      </c>
+      <c r="K587" s="23" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="588" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A588" s="21" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B588" s="22" t="s">
+        <v>1959</v>
+      </c>
+      <c r="C588" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D588" s="23" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E588" s="23" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F588" s="24">
+        <v>1778.57</v>
+      </c>
+      <c r="G588" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H588" s="23" t="s">
+        <v>1960</v>
+      </c>
+      <c r="I588" s="25">
+        <v>267</v>
+      </c>
+      <c r="J588" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="K588" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="589" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A589" s="21" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B589" s="22" t="s">
+        <v>1962</v>
+      </c>
+      <c r="C589" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D589" s="23" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E589" s="23" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F589" s="24">
+        <v>2147.39</v>
+      </c>
+      <c r="G589" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H589" s="23" t="s">
+        <v>1896</v>
+      </c>
+      <c r="I589" s="25">
+        <v>292</v>
+      </c>
+      <c r="J589" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="K589" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="590" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A590" s="21" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B590" s="22" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C590" s="23" t="s">
+        <v>616</v>
+      </c>
+      <c r="D590" s="23" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E590" s="23" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F590" s="24">
+        <v>1993.14</v>
+      </c>
+      <c r="G590" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H590" s="23" t="s">
+        <v>1896</v>
+      </c>
+      <c r="I590" s="25">
+        <v>279</v>
+      </c>
+      <c r="J590" s="23" t="s">
+        <v>618</v>
+      </c>
+      <c r="K590" s="23" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="591" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A591" s="21" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B591" s="22" t="s">
+        <v>1966</v>
+      </c>
+      <c r="C591" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="D591" s="23" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E591" s="23" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F591" s="24">
+        <v>3311.97</v>
+      </c>
+      <c r="G591" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H591" s="23" t="s">
+        <v>1896</v>
+      </c>
+      <c r="I591" s="25">
+        <v>305</v>
+      </c>
+      <c r="J591" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="K591" s="23" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="592" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A592" s="21" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B592" s="22" t="s">
+        <v>1968</v>
+      </c>
+      <c r="C592" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D592" s="23" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E592" s="23" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F592" s="24">
+        <v>637.82000000000005</v>
+      </c>
+      <c r="G592" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H592" s="23" t="s">
+        <v>1921</v>
+      </c>
+      <c r="I592" s="25">
+        <v>311</v>
+      </c>
+      <c r="J592" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="K592" s="23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="593" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A593" s="21" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B593" s="22" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C593" s="23" t="s">
+        <v>540</v>
+      </c>
+      <c r="D593" s="23" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E593" s="23" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F593" s="24">
+        <v>318.91000000000003</v>
+      </c>
+      <c r="G593" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H593" s="23" t="s">
+        <v>1921</v>
+      </c>
+      <c r="I593" s="25">
+        <v>328</v>
+      </c>
+      <c r="J593" s="23" t="s">
+        <v>542</v>
+      </c>
+      <c r="K593" s="23" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="594" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A594" s="21" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B594" s="22" t="s">
+        <v>1972</v>
+      </c>
+      <c r="C594" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D594" s="23" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E594" s="23" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F594" s="24">
+        <v>936.12</v>
+      </c>
+      <c r="G594" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H594" s="23" t="s">
+        <v>1896</v>
+      </c>
+      <c r="I594" s="25">
+        <v>330</v>
+      </c>
+      <c r="J594" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K594" s="23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="595" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A595" s="21" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B595" s="22" t="s">
+        <v>1974</v>
+      </c>
+      <c r="C595" s="23" t="s">
+        <v>490</v>
+      </c>
+      <c r="D595" s="23" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E595" s="23" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F595" s="24">
+        <v>3543.39</v>
+      </c>
+      <c r="G595" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H595" s="23" t="s">
+        <v>1896</v>
+      </c>
+      <c r="I595" s="25">
+        <v>343</v>
+      </c>
+      <c r="J595" s="23" t="s">
+        <v>491</v>
+      </c>
+      <c r="K595" s="23" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="596" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A596" s="21" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B596" s="22" t="s">
+        <v>1976</v>
+      </c>
+      <c r="C596" s="23" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D596" s="23" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E596" s="23" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F596" s="24">
+        <v>637.82000000000005</v>
+      </c>
+      <c r="G596" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H596" s="23" t="s">
+        <v>1921</v>
+      </c>
+      <c r="I596" s="25">
+        <v>345</v>
+      </c>
+      <c r="J596" s="23" t="s">
+        <v>1586</v>
+      </c>
+      <c r="K596" s="23" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="597" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A597" s="21" t="s">
+        <v>1977</v>
+      </c>
+      <c r="B597" s="22" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C597" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="D597" s="23" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E597" s="23" t="s">
+        <v>1980</v>
+      </c>
+      <c r="F597" s="24">
+        <v>5470</v>
+      </c>
+      <c r="G597" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H597" s="26"/>
+      <c r="I597" s="25">
+        <v>1</v>
+      </c>
+      <c r="J597" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="K597" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="598" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A598" s="21" t="s">
+        <v>1981</v>
+      </c>
+      <c r="B598" s="22" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C598" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="D598" s="23" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E598" s="23" t="s">
+        <v>1980</v>
+      </c>
+      <c r="F598" s="24">
+        <v>1367.5</v>
+      </c>
+      <c r="G598" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H598" s="26"/>
+      <c r="I598" s="25">
+        <v>20</v>
+      </c>
+      <c r="J598" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="K598" s="23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="599" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A599" s="21" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B599" s="22" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C599" s="23" t="s">
+        <v>480</v>
+      </c>
+      <c r="D599" s="23" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E599" s="23" t="s">
+        <v>1983</v>
+      </c>
+      <c r="F599" s="24">
+        <v>7275.1</v>
+      </c>
+      <c r="G599" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H599" s="26"/>
+      <c r="I599" s="25">
+        <v>27</v>
+      </c>
+      <c r="J599" s="23" t="s">
+        <v>482</v>
+      </c>
+      <c r="K599" s="23" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="600" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A600" s="21" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B600" s="22" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C600" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D600" s="23" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E600" s="23" t="s">
+        <v>1980</v>
+      </c>
+      <c r="F600" s="24">
+        <v>1695.7</v>
+      </c>
+      <c r="G600" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H600" s="23" t="s">
+        <v>1985</v>
+      </c>
+      <c r="I600" s="25">
+        <v>35</v>
+      </c>
+      <c r="J600" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="K600" s="23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="601" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A601" s="21" t="s">
+        <v>1986</v>
+      </c>
+      <c r="B601" s="22" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C601" s="23" t="s">
+        <v>700</v>
+      </c>
+      <c r="D601" s="23" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E601" s="23" t="s">
+        <v>1980</v>
+      </c>
+      <c r="F601" s="24">
+        <v>7658</v>
+      </c>
+      <c r="G601" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H601" s="26"/>
+      <c r="I601" s="25">
+        <v>38</v>
+      </c>
+      <c r="J601" s="23" t="s">
+        <v>703</v>
+      </c>
+      <c r="K601" s="23" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="602" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A602" s="21" t="s">
+        <v>1987</v>
+      </c>
+      <c r="B602" s="22" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C602" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D602" s="23" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E602" s="23" t="s">
+        <v>1980</v>
+      </c>
+      <c r="F602" s="24">
+        <v>820.5</v>
+      </c>
+      <c r="G602" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H602" s="26"/>
+      <c r="I602" s="25">
+        <v>55</v>
+      </c>
+      <c r="J602" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="K602" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="603" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A603" s="21" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B603" s="22" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C603" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D603" s="23" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E603" s="23" t="s">
+        <v>1980</v>
+      </c>
+      <c r="F603" s="24">
+        <v>3391.4</v>
+      </c>
+      <c r="G603" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H603" s="26"/>
+      <c r="I603" s="25">
+        <v>59</v>
+      </c>
+      <c r="J603" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="K603" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="604" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A604" s="21" t="s">
+        <v>1989</v>
+      </c>
+      <c r="B604" s="22" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C604" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D604" s="23" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E604" s="23" t="s">
+        <v>1980</v>
+      </c>
+      <c r="F604" s="24">
+        <v>1203.4000000000001</v>
+      </c>
+      <c r="G604" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H604" s="26"/>
+      <c r="I604" s="25">
+        <v>74</v>
+      </c>
+      <c r="J604" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="K604" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="605" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A605" s="21" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B605" s="22" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C605" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="D605" s="23" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E605" s="23" t="s">
+        <v>1980</v>
+      </c>
+      <c r="F605" s="24">
+        <v>820.5</v>
+      </c>
+      <c r="G605" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H605" s="26"/>
+      <c r="I605" s="25">
+        <v>95</v>
+      </c>
+      <c r="J605" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="K605" s="23" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="606" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A606" s="21" t="s">
+        <v>1991</v>
+      </c>
+      <c r="B606" s="22" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C606" s="23" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D606" s="23" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E606" s="23" t="s">
+        <v>1980</v>
+      </c>
+      <c r="F606" s="24">
+        <v>1203.4000000000001</v>
+      </c>
+      <c r="G606" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H606" s="26"/>
+      <c r="I606" s="25">
+        <v>100</v>
+      </c>
+      <c r="J606" s="23" t="s">
+        <v>1594</v>
+      </c>
+      <c r="K606" s="23" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="607" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A607" s="21" t="s">
+        <v>1992</v>
+      </c>
+      <c r="B607" s="22" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C607" s="23" t="s">
+        <v>1993</v>
+      </c>
+      <c r="D607" s="23" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E607" s="23" t="s">
+        <v>1980</v>
+      </c>
+      <c r="F607" s="24">
+        <v>2133.3000000000002</v>
+      </c>
+      <c r="G607" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H607" s="26"/>
+      <c r="I607" s="26"/>
+      <c r="J607" s="26"/>
+      <c r="K607" s="26"/>
+    </row>
+    <row r="608" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A608" s="21" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B608" s="22" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C608" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="D608" s="23" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E608" s="23" t="s">
+        <v>1980</v>
+      </c>
+      <c r="F608" s="24">
+        <v>2023.9</v>
+      </c>
+      <c r="G608" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H608" s="26"/>
+      <c r="I608" s="25">
+        <v>156</v>
+      </c>
+      <c r="J608" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="K608" s="23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="609" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A609" s="21" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B609" s="22" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C609" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="D609" s="23" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E609" s="23" t="s">
+        <v>1980</v>
+      </c>
+      <c r="F609" s="24">
+        <v>656.4</v>
+      </c>
+      <c r="G609" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H609" s="26"/>
+      <c r="I609" s="25">
+        <v>167</v>
+      </c>
+      <c r="J609" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="K609" s="23" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="610" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A610" s="21" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B610" s="22" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C610" s="23" t="s">
+        <v>1899</v>
+      </c>
+      <c r="D610" s="23" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E610" s="23" t="s">
+        <v>1980</v>
+      </c>
+      <c r="F610" s="24">
+        <v>4266.6000000000004</v>
+      </c>
+      <c r="G610" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H610" s="26"/>
+      <c r="I610" s="25">
+        <v>174</v>
+      </c>
+      <c r="J610" s="23" t="s">
+        <v>1900</v>
+      </c>
+      <c r="K610" s="23" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="611" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A611" s="21" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B611" s="22" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C611" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="D611" s="23" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E611" s="23" t="s">
+        <v>1980</v>
+      </c>
+      <c r="F611" s="24">
+        <v>1367.5</v>
+      </c>
+      <c r="G611" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H611" s="26"/>
+      <c r="I611" s="25">
+        <v>180</v>
+      </c>
+      <c r="J611" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="K611" s="23" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="612" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A612" s="21" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B612" s="22" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C612" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="D612" s="23" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E612" s="23" t="s">
+        <v>1980</v>
+      </c>
+      <c r="F612" s="24">
+        <v>4594.8</v>
+      </c>
+      <c r="G612" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H612" s="26"/>
+      <c r="I612" s="25">
+        <v>194</v>
+      </c>
+      <c r="J612" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="K612" s="23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="613" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A613" s="21" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B613" s="22" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C613" s="23" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D613" s="23" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E613" s="23" t="s">
+        <v>1980</v>
+      </c>
+      <c r="F613" s="24">
+        <v>3391.4</v>
+      </c>
+      <c r="G613" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H613" s="26"/>
+      <c r="I613" s="25">
+        <v>201</v>
+      </c>
+      <c r="J613" s="23" t="s">
+        <v>1551</v>
+      </c>
+      <c r="K613" s="23" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="614" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A614" s="21" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B614" s="22" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C614" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="D614" s="23" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E614" s="23" t="s">
+        <v>1980</v>
+      </c>
+      <c r="F614" s="24">
+        <v>875.2</v>
+      </c>
+      <c r="G614" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H614" s="26"/>
+      <c r="I614" s="25">
+        <v>218</v>
+      </c>
+      <c r="J614" s="23" t="s">
+        <v>407</v>
+      </c>
+      <c r="K614" s="23" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="615" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A615" s="21" t="s">
+        <v>2001</v>
+      </c>
+      <c r="B615" s="22" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C615" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="D615" s="23" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E615" s="23" t="s">
+        <v>1980</v>
+      </c>
+      <c r="F615" s="24">
+        <v>547</v>
+      </c>
+      <c r="G615" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H615" s="26"/>
+      <c r="I615" s="25">
+        <v>223</v>
+      </c>
+      <c r="J615" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="K615" s="23" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="616" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A616" s="21" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B616" s="22" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C616" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D616" s="23" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E616" s="23" t="s">
+        <v>1980</v>
+      </c>
+      <c r="F616" s="24">
+        <v>4157.2</v>
+      </c>
+      <c r="G616" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H616" s="26"/>
+      <c r="I616" s="25">
+        <v>226</v>
+      </c>
+      <c r="J616" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="K616" s="23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="617" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A617" s="21" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B617" s="22" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C617" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D617" s="23" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E617" s="23" t="s">
+        <v>1980</v>
+      </c>
+      <c r="F617" s="24">
+        <v>1969.2</v>
+      </c>
+      <c r="G617" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H617" s="26"/>
+      <c r="I617" s="25">
+        <v>267</v>
+      </c>
+      <c r="J617" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="K617" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="618" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A618" s="21" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B618" s="22" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C618" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D618" s="23" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E618" s="23" t="s">
+        <v>1980</v>
+      </c>
+      <c r="F618" s="24">
+        <v>820.5</v>
+      </c>
+      <c r="G618" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H618" s="26"/>
+      <c r="I618" s="25">
+        <v>269</v>
+      </c>
+      <c r="J618" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="K618" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="619" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A619" s="21" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B619" s="22" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C619" s="23" t="s">
+        <v>464</v>
+      </c>
+      <c r="D619" s="23" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E619" s="23" t="s">
+        <v>1980</v>
+      </c>
+      <c r="F619" s="24">
+        <v>1586.3</v>
+      </c>
+      <c r="G619" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H619" s="26"/>
+      <c r="I619" s="25">
+        <v>273</v>
+      </c>
+      <c r="J619" s="23" t="s">
+        <v>466</v>
+      </c>
+      <c r="K619" s="23" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="620" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A620" s="21" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B620" s="22" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C620" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D620" s="23" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E620" s="23" t="s">
+        <v>1980</v>
+      </c>
+      <c r="F620" s="24">
+        <v>1039.3</v>
+      </c>
+      <c r="G620" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H620" s="26"/>
+      <c r="I620" s="25">
+        <v>292</v>
+      </c>
+      <c r="J620" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="K620" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="621" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A621" s="21" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B621" s="22" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C621" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="D621" s="23" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E621" s="23" t="s">
+        <v>1980</v>
+      </c>
+      <c r="F621" s="24">
+        <v>4321.3</v>
+      </c>
+      <c r="G621" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H621" s="26"/>
+      <c r="I621" s="25">
+        <v>297</v>
+      </c>
+      <c r="J621" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="K621" s="23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="622" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A622" s="21" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B622" s="22" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C622" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="D622" s="23" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E622" s="23" t="s">
+        <v>1980</v>
+      </c>
+      <c r="F622" s="24">
+        <v>1805.1</v>
+      </c>
+      <c r="G622" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H622" s="26"/>
+      <c r="I622" s="25">
+        <v>305</v>
+      </c>
+      <c r="J622" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="K622" s="23" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="623" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A623" s="21" t="s">
+        <v>2009</v>
+      </c>
+      <c r="B623" s="22" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C623" s="23" t="s">
+        <v>867</v>
+      </c>
+      <c r="D623" s="23" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E623" s="23" t="s">
+        <v>1980</v>
+      </c>
+      <c r="F623" s="24">
+        <v>5634.1</v>
+      </c>
+      <c r="G623" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H623" s="26"/>
+      <c r="I623" s="25">
+        <v>309</v>
+      </c>
+      <c r="J623" s="23" t="s">
+        <v>868</v>
+      </c>
+      <c r="K623" s="23" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="624" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A624" s="21" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B624" s="22" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C624" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D624" s="23" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E624" s="23" t="s">
+        <v>1980</v>
+      </c>
+      <c r="F624" s="24">
+        <v>547</v>
+      </c>
+      <c r="G624" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H624" s="26"/>
+      <c r="I624" s="25">
+        <v>311</v>
+      </c>
+      <c r="J624" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="K624" s="23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="625" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A625" s="21" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B625" s="22" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C625" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="D625" s="23" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E625" s="23" t="s">
+        <v>1980</v>
+      </c>
+      <c r="F625" s="24">
+        <v>1695.7</v>
+      </c>
+      <c r="G625" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H625" s="26"/>
+      <c r="I625" s="25">
+        <v>320</v>
+      </c>
+      <c r="J625" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="K625" s="23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="626" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A626" s="21" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B626" s="22" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C626" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D626" s="23" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E626" s="23" t="s">
+        <v>1980</v>
+      </c>
+      <c r="F626" s="24">
+        <v>5141.8</v>
+      </c>
+      <c r="G626" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H626" s="26"/>
+      <c r="I626" s="25">
+        <v>326</v>
+      </c>
+      <c r="J626" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="K626" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="627" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A627" s="21" t="s">
+        <v>2013</v>
+      </c>
+      <c r="B627" s="22" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C627" s="23" t="s">
+        <v>540</v>
+      </c>
+      <c r="D627" s="23" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E627" s="23" t="s">
+        <v>1980</v>
+      </c>
+      <c r="F627" s="24">
+        <v>711.1</v>
+      </c>
+      <c r="G627" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H627" s="26"/>
+      <c r="I627" s="25">
+        <v>328</v>
+      </c>
+      <c r="J627" s="23" t="s">
+        <v>542</v>
+      </c>
+      <c r="K627" s="23" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="628" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A628" s="21" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B628" s="22" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C628" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D628" s="23" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E628" s="23" t="s">
+        <v>1980</v>
+      </c>
+      <c r="F628" s="24">
+        <v>328.2</v>
+      </c>
+      <c r="G628" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H628" s="26"/>
+      <c r="I628" s="25">
+        <v>330</v>
+      </c>
+      <c r="J628" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K628" s="23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="629" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A629" s="21" t="s">
+        <v>2015</v>
+      </c>
+      <c r="B629" s="22" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C629" s="23" t="s">
+        <v>1872</v>
+      </c>
+      <c r="D629" s="23" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E629" s="23" t="s">
+        <v>1980</v>
+      </c>
+      <c r="F629" s="24">
+        <v>1531.6</v>
+      </c>
+      <c r="G629" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H629" s="26"/>
+      <c r="I629" s="25">
+        <v>344</v>
+      </c>
+      <c r="J629" s="23" t="s">
+        <v>1876</v>
+      </c>
+      <c r="K629" s="26"/>
+    </row>
+    <row r="630" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A630" s="21" t="s">
+        <v>2016</v>
+      </c>
+      <c r="B630" s="22" t="s">
+        <v>2017</v>
+      </c>
+      <c r="C630" s="23" t="s">
+        <v>2018</v>
+      </c>
+      <c r="D630" s="23" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E630" s="23" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F630" s="24">
+        <v>100557</v>
+      </c>
+      <c r="G630" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H630" s="23" t="s">
+        <v>2019</v>
+      </c>
+      <c r="I630" s="25">
+        <v>340</v>
+      </c>
+      <c r="J630" s="23" t="s">
+        <v>2020</v>
+      </c>
+      <c r="K630" s="23" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="631" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A631" s="21" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B631" s="22" t="s">
+        <v>2017</v>
+      </c>
+      <c r="C631" s="23" t="s">
+        <v>855</v>
+      </c>
+      <c r="D631" s="23" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E631" s="23" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F631" s="24">
+        <v>69882</v>
+      </c>
+      <c r="G631" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H631" s="23" t="s">
+        <v>2023</v>
+      </c>
+      <c r="I631" s="25">
+        <v>229</v>
+      </c>
+      <c r="J631" s="23" t="s">
+        <v>857</v>
+      </c>
+      <c r="K631" s="23" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="632" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A632" s="21" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B632" s="22" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C632" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="D632" s="23" t="s">
+        <v>1740</v>
+      </c>
+      <c r="E632" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F632" s="24">
+        <v>29000</v>
+      </c>
+      <c r="G632" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H632" s="23" t="s">
+        <v>2026</v>
+      </c>
+      <c r="I632" s="25">
+        <v>195</v>
+      </c>
+      <c r="J632" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="K632" s="23" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="633" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A633" s="21" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B633" s="22" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C633" s="23" t="s">
+        <v>2029</v>
+      </c>
+      <c r="D633" s="23" t="s">
+        <v>1730</v>
+      </c>
+      <c r="E633" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F633" s="24">
+        <v>29000</v>
+      </c>
+      <c r="G633" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H633" s="23" t="s">
+        <v>2026</v>
+      </c>
+      <c r="I633" s="25">
+        <v>145</v>
+      </c>
+      <c r="J633" s="23" t="s">
+        <v>2030</v>
+      </c>
+      <c r="K633" s="23" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="634" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A634" s="21" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B634" s="22" t="s">
+        <v>2033</v>
+      </c>
+      <c r="C634" s="23" t="s">
+        <v>2034</v>
+      </c>
+      <c r="D634" s="23" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E634" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F634" s="24">
+        <v>29000</v>
+      </c>
+      <c r="G634" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H634" s="23" t="s">
+        <v>2026</v>
+      </c>
+      <c r="I634" s="25">
+        <v>69</v>
+      </c>
+      <c r="J634" s="23" t="s">
+        <v>2035</v>
+      </c>
+      <c r="K634" s="23" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="635" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A635" s="21" t="s">
+        <v>2036</v>
+      </c>
+      <c r="B635" s="22" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C635" s="23" t="s">
+        <v>2038</v>
+      </c>
+      <c r="D635" s="23" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E635" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F635" s="24">
+        <v>29000</v>
+      </c>
+      <c r="G635" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H635" s="23" t="s">
+        <v>2026</v>
+      </c>
+      <c r="I635" s="25">
+        <v>22</v>
+      </c>
+      <c r="J635" s="23" t="s">
+        <v>2039</v>
+      </c>
+      <c r="K635" s="23" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="636" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A636" s="21" t="s">
+        <v>2041</v>
+      </c>
+      <c r="B636" s="22" t="s">
+        <v>2042</v>
+      </c>
+      <c r="C636" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="D636" s="23" t="s">
+        <v>2043</v>
+      </c>
+      <c r="E636" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F636" s="24">
+        <v>29000</v>
+      </c>
+      <c r="G636" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H636" s="23" t="s">
+        <v>2026</v>
+      </c>
+      <c r="I636" s="25">
+        <v>297</v>
+      </c>
+      <c r="J636" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="K636" s="23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="637" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A637" s="21" t="s">
+        <v>2044</v>
+      </c>
+      <c r="B637" s="22" t="s">
+        <v>2045</v>
+      </c>
+      <c r="C637" s="23" t="s">
+        <v>635</v>
+      </c>
+      <c r="D637" s="23" t="s">
+        <v>1754</v>
+      </c>
+      <c r="E637" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F637" s="24">
+        <v>29000</v>
+      </c>
+      <c r="G637" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H637" s="23" t="s">
+        <v>2026</v>
+      </c>
+      <c r="I637" s="25">
+        <v>298</v>
+      </c>
+      <c r="J637" s="23" t="s">
+        <v>637</v>
+      </c>
+      <c r="K637" s="23" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="638" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A638" s="21" t="s">
+        <v>2046</v>
+      </c>
+      <c r="B638" s="22" t="s">
+        <v>2047</v>
+      </c>
+      <c r="C638" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D638" s="23" t="s">
+        <v>1730</v>
+      </c>
+      <c r="E638" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F638" s="24">
+        <v>29000</v>
+      </c>
+      <c r="G638" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H638" s="23" t="s">
+        <v>2026</v>
+      </c>
+      <c r="I638" s="25">
+        <v>269</v>
+      </c>
+      <c r="J638" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="K638" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="639" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A639" s="21" t="s">
+        <v>2048</v>
+      </c>
+      <c r="B639" s="22" t="s">
+        <v>2049</v>
+      </c>
+      <c r="C639" s="23" t="s">
+        <v>1800</v>
+      </c>
+      <c r="D639" s="23" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E639" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F639" s="24">
+        <v>14500</v>
+      </c>
+      <c r="G639" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H639" s="23" t="s">
+        <v>2050</v>
+      </c>
+      <c r="I639" s="25">
+        <v>329</v>
+      </c>
+      <c r="J639" s="23" t="s">
+        <v>1802</v>
+      </c>
+      <c r="K639" s="23" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="640" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A640" s="21" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B640" s="22" t="s">
+        <v>2052</v>
+      </c>
+      <c r="C640" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="D640" s="23" t="s">
+        <v>2053</v>
+      </c>
+      <c r="E640" s="23" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F640" s="24">
+        <v>6000</v>
+      </c>
+      <c r="G640" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H640" s="23" t="s">
+        <v>2054</v>
+      </c>
+      <c r="I640" s="25">
+        <v>194</v>
+      </c>
+      <c r="J640" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="K640" s="23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="641" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A641" s="21" t="s">
+        <v>2055</v>
+      </c>
+      <c r="B641" s="22" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C641" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="D641" s="23" t="s">
+        <v>2057</v>
+      </c>
+      <c r="E641" s="23" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F641" s="24">
+        <v>9000</v>
+      </c>
+      <c r="G641" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H641" s="23" t="s">
+        <v>2058</v>
+      </c>
+      <c r="I641" s="25">
+        <v>180</v>
+      </c>
+      <c r="J641" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="K641" s="23" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="642" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A642" s="21" t="s">
+        <v>2059</v>
+      </c>
+      <c r="B642" s="22" t="s">
+        <v>2060</v>
+      </c>
+      <c r="C642" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="D642" s="23" t="s">
+        <v>2061</v>
+      </c>
+      <c r="E642" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F642" s="24">
+        <v>9000</v>
+      </c>
+      <c r="G642" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H642" s="23" t="s">
+        <v>2062</v>
+      </c>
+      <c r="I642" s="25">
+        <v>195</v>
+      </c>
+      <c r="J642" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="K642" s="23" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="643" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A643" s="21" t="s">
+        <v>2063</v>
+      </c>
+      <c r="B643" s="22" t="s">
+        <v>2064</v>
+      </c>
+      <c r="C643" s="23" t="s">
+        <v>2065</v>
+      </c>
+      <c r="D643" s="23" t="s">
+        <v>2053</v>
+      </c>
+      <c r="E643" s="23" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F643" s="24">
+        <v>6000</v>
+      </c>
+      <c r="G643" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H643" s="23" t="s">
+        <v>2054</v>
+      </c>
+      <c r="I643" s="25">
+        <v>150</v>
+      </c>
+      <c r="J643" s="23" t="s">
+        <v>2066</v>
+      </c>
+      <c r="K643" s="23" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="644" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A644" s="21" t="s">
+        <v>2068</v>
+      </c>
+      <c r="B644" s="22" t="s">
+        <v>2069</v>
+      </c>
+      <c r="C644" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="D644" s="23" t="s">
+        <v>2061</v>
+      </c>
+      <c r="E644" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F644" s="24">
+        <v>6000</v>
+      </c>
+      <c r="G644" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H644" s="23" t="s">
+        <v>2070</v>
+      </c>
+      <c r="I644" s="25">
+        <v>156</v>
+      </c>
+      <c r="J644" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="K644" s="23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="645" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A645" s="21" t="s">
+        <v>2071</v>
+      </c>
+      <c r="B645" s="22" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C645" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D645" s="23" t="s">
+        <v>2061</v>
+      </c>
+      <c r="E645" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F645" s="24">
+        <v>9000</v>
+      </c>
+      <c r="G645" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H645" s="23" t="s">
+        <v>2058</v>
+      </c>
+      <c r="I645" s="25">
+        <v>55</v>
+      </c>
+      <c r="J645" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="K645" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="646" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A646" s="21" t="s">
+        <v>2073</v>
+      </c>
+      <c r="B646" s="22" t="s">
+        <v>2074</v>
+      </c>
+      <c r="C646" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D646" s="23" t="s">
+        <v>2057</v>
+      </c>
+      <c r="E646" s="23" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F646" s="24">
+        <v>9000</v>
+      </c>
+      <c r="G646" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H646" s="23" t="s">
+        <v>2058</v>
+      </c>
+      <c r="I646" s="25">
+        <v>59</v>
+      </c>
+      <c r="J646" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="K646" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="647" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A647" s="21" t="s">
+        <v>2075</v>
+      </c>
+      <c r="B647" s="22" t="s">
+        <v>2076</v>
+      </c>
+      <c r="C647" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D647" s="23" t="s">
+        <v>2057</v>
+      </c>
+      <c r="E647" s="23" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F647" s="24">
+        <v>6000</v>
+      </c>
+      <c r="G647" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H647" s="23" t="s">
+        <v>2054</v>
+      </c>
+      <c r="I647" s="25">
+        <v>74</v>
+      </c>
+      <c r="J647" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="K647" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="648" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A648" s="21" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B648" s="22" t="s">
+        <v>2078</v>
+      </c>
+      <c r="C648" s="23" t="s">
+        <v>850</v>
+      </c>
+      <c r="D648" s="23" t="s">
+        <v>2053</v>
+      </c>
+      <c r="E648" s="23" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F648" s="24">
+        <v>6000</v>
+      </c>
+      <c r="G648" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H648" s="23" t="s">
+        <v>2054</v>
+      </c>
+      <c r="I648" s="25">
+        <v>82</v>
+      </c>
+      <c r="J648" s="23" t="s">
+        <v>852</v>
+      </c>
+      <c r="K648" s="26"/>
+    </row>
+    <row r="649" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A649" s="21" t="s">
+        <v>2079</v>
+      </c>
+      <c r="B649" s="22" t="s">
+        <v>2080</v>
+      </c>
+      <c r="C649" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="D649" s="23" t="s">
+        <v>2061</v>
+      </c>
+      <c r="E649" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F649" s="24">
+        <v>9000</v>
+      </c>
+      <c r="G649" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H649" s="23" t="s">
+        <v>2058</v>
+      </c>
+      <c r="I649" s="25">
+        <v>1</v>
+      </c>
+      <c r="J649" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="K649" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="650" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A650" s="21" t="s">
+        <v>2081</v>
+      </c>
+      <c r="B650" s="22" t="s">
+        <v>2082</v>
+      </c>
+      <c r="C650" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D650" s="23" t="s">
+        <v>2057</v>
+      </c>
+      <c r="E650" s="23" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F650" s="24">
+        <v>9000</v>
+      </c>
+      <c r="G650" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H650" s="23" t="s">
+        <v>2058</v>
+      </c>
+      <c r="I650" s="25">
+        <v>267</v>
+      </c>
+      <c r="J650" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="K650" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="651" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A651" s="21" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B651" s="22" t="s">
+        <v>2084</v>
+      </c>
+      <c r="C651" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D651" s="23" t="s">
+        <v>2061</v>
+      </c>
+      <c r="E651" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F651" s="24">
+        <v>3000</v>
+      </c>
+      <c r="G651" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H651" s="23" t="s">
+        <v>2085</v>
+      </c>
+      <c r="I651" s="25">
+        <v>292</v>
+      </c>
+      <c r="J651" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="K651" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="652" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A652" s="21" t="s">
+        <v>2086</v>
+      </c>
+      <c r="B652" s="22" t="s">
+        <v>2087</v>
+      </c>
+      <c r="C652" s="23" t="s">
+        <v>540</v>
+      </c>
+      <c r="D652" s="23" t="s">
+        <v>2061</v>
+      </c>
+      <c r="E652" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F652" s="24">
+        <v>9000</v>
+      </c>
+      <c r="G652" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H652" s="23" t="s">
+        <v>2062</v>
+      </c>
+      <c r="I652" s="25">
+        <v>328</v>
+      </c>
+      <c r="J652" s="23" t="s">
+        <v>542</v>
+      </c>
+      <c r="K652" s="23" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="653" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A653" s="21" t="s">
+        <v>2088</v>
+      </c>
+      <c r="B653" s="22" t="s">
+        <v>2088</v>
+      </c>
+      <c r="C653" s="23" t="s">
+        <v>2089</v>
+      </c>
+      <c r="D653" s="23" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E653" s="23" t="s">
+        <v>1874</v>
+      </c>
+      <c r="F653" s="24">
+        <v>98185.5</v>
+      </c>
+      <c r="G653" s="23" t="s">
+        <v>1657</v>
+      </c>
+      <c r="H653" s="26"/>
+      <c r="I653" s="25">
+        <v>333</v>
+      </c>
+      <c r="J653" s="23" t="s">
+        <v>2091</v>
+      </c>
+      <c r="K653" s="26"/>
+    </row>
+    <row r="654" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A654" s="21" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B654" s="22" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C654" s="23" t="s">
+        <v>2093</v>
+      </c>
+      <c r="D654" s="23" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E654" s="23" t="s">
+        <v>2094</v>
+      </c>
+      <c r="F654" s="24">
+        <v>204505</v>
+      </c>
+      <c r="G654" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H654" s="26"/>
+      <c r="I654" s="25">
+        <v>348</v>
+      </c>
+      <c r="J654" s="23" t="s">
+        <v>2095</v>
+      </c>
+      <c r="K654" s="23" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="655" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A655" s="21" t="s">
+        <v>2097</v>
+      </c>
+      <c r="B655" s="22" t="s">
+        <v>2097</v>
+      </c>
+      <c r="C655" s="23" t="s">
+        <v>2098</v>
+      </c>
+      <c r="D655" s="23" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E655" s="23" t="s">
+        <v>2094</v>
+      </c>
+      <c r="F655" s="24">
+        <v>325824</v>
+      </c>
+      <c r="G655" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H655" s="26"/>
+      <c r="I655" s="25">
+        <v>354</v>
+      </c>
+      <c r="J655" s="23" t="s">
+        <v>2099</v>
+      </c>
+      <c r="K655" s="23" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="656" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A656" s="21" t="s">
+        <v>2101</v>
+      </c>
+      <c r="B656" s="22" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C656" s="23" t="s">
+        <v>2102</v>
+      </c>
+      <c r="D656" s="23" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E656" s="23" t="s">
+        <v>1874</v>
+      </c>
+      <c r="F656" s="24">
+        <v>98640</v>
+      </c>
+      <c r="G656" s="23" t="s">
+        <v>1657</v>
+      </c>
+      <c r="H656" s="26"/>
+      <c r="I656" s="25">
+        <v>339</v>
+      </c>
+      <c r="J656" s="23" t="s">
+        <v>2103</v>
+      </c>
+      <c r="K656" s="23" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="657" spans="1:11" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A657" s="21" t="s">
+        <v>2105</v>
+      </c>
+      <c r="B657" s="22" t="s">
+        <v>2105</v>
+      </c>
+      <c r="C657" s="23" t="s">
+        <v>2106</v>
+      </c>
+      <c r="D657" s="23" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E657" s="23" t="s">
+        <v>1874</v>
+      </c>
+      <c r="F657" s="24">
+        <v>98640</v>
+      </c>
+      <c r="G657" s="23" t="s">
+        <v>1657</v>
+      </c>
+      <c r="H657" s="26"/>
+      <c r="I657" s="25">
+        <v>334</v>
+      </c>
+      <c r="J657" s="23" t="s">
+        <v>2107</v>
+      </c>
+      <c r="K657" s="26"/>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K504">
+    <sortCondition ref="D2:D504"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
